--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="904">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3480,6 +3480,24 @@
   <si>
     <t>The game runs on windows 8 and 10 preview (build 10041), does this count for partial?</t>
   </si>
+  <si>
+    <t>Rogeubot</t>
+  </si>
+  <si>
+    <t>Terminal Audacity</t>
+  </si>
+  <si>
+    <t>Keyboard and Mouse</t>
+  </si>
+  <si>
+    <t>Single Player</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Accomplishment</t>
+  </si>
 </sst>
 </file>
 
@@ -3490,7 +3508,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0%;[Red]\-0%"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3697,6 +3715,14 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -5277,9 +5303,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5546,6 +5569,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="643">
@@ -24016,8 +24042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
@@ -24055,31 +24081,35 @@
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="237" t="s">
+        <v>898</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="F2" s="237" t="s">
+        <v>899</v>
+      </c>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24119,12 +24149,16 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="142" t="s">
+        <v>900</v>
+      </c>
       <c r="B6" s="143"/>
       <c r="C6" s="143"/>
       <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
+      <c r="F6" s="142" t="s">
+        <v>902</v>
+      </c>
       <c r="G6" s="143"/>
       <c r="H6" s="143"/>
       <c r="I6" s="143"/>
@@ -24141,7 +24175,9 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
+      <c r="F7" s="142" t="s">
+        <v>903</v>
+      </c>
       <c r="G7" s="143"/>
       <c r="H7" s="143"/>
       <c r="I7" s="143"/>
@@ -24168,7 +24204,9 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="142"/>
+      <c r="A9" s="142" t="s">
+        <v>901</v>
+      </c>
       <c r="B9" s="143"/>
       <c r="C9" s="143"/>
       <c r="D9" s="144"/>
@@ -24386,11 +24424,11 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="156" t="s">
+      <c r="G18" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="157"/>
-      <c r="I18" s="158"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
@@ -24464,18 +24502,18 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="161" t="s">
+      <c r="F22" s="160" t="s">
         <v>846</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="158">
         <f>'Project Grade'!$G$3</f>
         <v>0.79</v>
       </c>
-      <c r="H22" s="155"/>
+      <c r="H22" s="154"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="163">
+      <c r="J22" s="162">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
@@ -24491,13 +24529,13 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="155"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="154"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="164"/>
+      <c r="J23" s="163"/>
       <c r="K23" s="6"/>
       <c r="L23" s="121"/>
       <c r="M23" s="32"/>
@@ -24646,30 +24684,30 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="153" t="s">
         <v>858</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="154"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -24750,7 +24788,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
@@ -24769,53 +24807,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="180"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="169" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="171"/>
+      <c r="E1" s="170"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="169" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="171"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="171" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="173"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="171" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="173"/>
+      <c r="H2" s="172"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="181"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="174">
+      <c r="D3" s="173">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
         <v>0.75</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="174">
+      <c r="G3" s="173">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.79</v>
       </c>
-      <c r="H3" s="175"/>
+      <c r="H3" s="174"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
         <v>1.9999999999999997E-2</v>
@@ -24833,10 +24871,10 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="181" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="25"/>
       <c r="D5" s="145" t="s">
         <v>735</v>
@@ -24852,23 +24890,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="184">
+      <c r="A6" s="183">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="185"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="103"/>
-      <c r="D6" s="165">
+      <c r="D6" s="164">
         <f>E15+E24+E33+E42+E51+E60</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="E6" s="166"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="165">
+      <c r="G6" s="164">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="166"/>
+      <c r="H6" s="165"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
         <v>2.0000000000000004E-2</v>
@@ -24878,15 +24916,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="176"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="176" t="s">
+      <c r="G7" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="176"/>
+      <c r="H7" s="175"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24910,7 +24948,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="177" t="s">
+      <c r="J8" s="176" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24940,7 +24978,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="178"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24968,7 +25006,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="179"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25054,7 +25092,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="167" t="s">
+      <c r="J13" s="166" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25084,7 +25122,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="167"/>
+      <c r="J14" s="166"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25105,22 +25143,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="167"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="169" t="s">
+      <c r="D16" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="169"/>
+      <c r="E16" s="168"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="169"/>
-      <c r="J16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25143,7 +25181,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="167"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25171,7 +25209,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="168"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25347,15 +25385,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="169"/>
+      <c r="E25" s="168"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="169"/>
+      <c r="H25" s="168"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25574,15 +25612,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="169" t="s">
+      <c r="D34" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="169"/>
+      <c r="E34" s="168"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="169" t="s">
+      <c r="G34" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="169"/>
+      <c r="H34" s="168"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25792,15 +25830,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="169" t="s">
+      <c r="D43" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="169"/>
+      <c r="E43" s="168"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="169" t="s">
+      <c r="G43" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="169"/>
+      <c r="H43" s="168"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26010,15 +26048,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="169" t="s">
+      <c r="D52" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="169"/>
+      <c r="E52" s="168"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="169" t="s">
+      <c r="G52" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="169"/>
+      <c r="H52" s="168"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26284,54 +26322,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="200"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="212" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="215"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="185" t="s">
         <v>651</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="188"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>879</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="218"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="217"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26360,10 +26398,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="214"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26379,10 +26417,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="221"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26398,10 +26436,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="222"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26417,10 +26455,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="222"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26436,10 +26474,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="222"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26455,10 +26493,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="221"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26474,10 +26512,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="221"/>
+      <c r="B14" s="220"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26493,10 +26531,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="224"/>
+      <c r="B15" s="223"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26513,11 +26551,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="219" t="s">
+      <c r="B16" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26536,303 +26574,303 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="188"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="187"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1">
       <c r="A20" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="188"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="187"/>
     </row>
     <row r="21" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
       <c r="A21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="185" t="s">
         <v>743</v>
       </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="188"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="187"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="200" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="203" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="202"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="A23" s="201"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="202"/>
-      <c r="B24" s="210" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="209" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="202"/>
-      <c r="B25" s="192" t="s">
+      <c r="A25" s="201"/>
+      <c r="B25" s="191" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="194"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="193"/>
     </row>
     <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="202"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="209"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="208"/>
     </row>
     <row r="27" spans="1:6" ht="43.05" customHeight="1">
-      <c r="A27" s="202"/>
-      <c r="B27" s="192" t="s">
+      <c r="A27" s="201"/>
+      <c r="B27" s="191" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="194"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="193"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="202"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
+      <c r="A28" s="201"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="208"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="202"/>
-      <c r="B29" s="192" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="191" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="194"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="193"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="202"/>
-      <c r="B30" s="192" t="s">
+      <c r="A30" s="201"/>
+      <c r="B30" s="191" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="194"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="202"/>
-      <c r="B31" s="192" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="191" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="193"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="202"/>
-      <c r="B32" s="192" t="s">
+      <c r="A32" s="201"/>
+      <c r="B32" s="191" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="193"/>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="202"/>
-      <c r="B33" s="192" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="191" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="194"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="193"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="202"/>
-      <c r="B34" s="192" t="s">
+      <c r="A34" s="201"/>
+      <c r="B34" s="191" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="194"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="193"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="202"/>
-      <c r="B35" s="192" t="s">
+      <c r="A35" s="201"/>
+      <c r="B35" s="191" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="194"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="193"/>
     </row>
     <row r="36" spans="1:6" ht="16.149999999999999" thickBot="1">
-      <c r="A36" s="203"/>
-      <c r="B36" s="195" t="s">
+      <c r="A36" s="202"/>
+      <c r="B36" s="194" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="197"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
     </row>
     <row r="37" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="189" t="s">
+      <c r="B37" s="188" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="191"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="190"/>
     </row>
     <row r="38" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="188" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="191"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
     </row>
     <row r="39" spans="1:6" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="188" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="190"/>
     </row>
     <row r="40" spans="1:6" ht="39.75" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="189" t="s">
+      <c r="B40" s="188" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="191"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="190"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="188" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="191"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="190"/>
     </row>
     <row r="42" spans="1:6" ht="16.149999999999999" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="189" t="s">
+      <c r="B42" s="188" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="190"/>
     </row>
     <row r="43" spans="1:6" ht="39.75" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="189" t="s">
+      <c r="B43" s="188" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="191"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="190"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="189" t="s">
+      <c r="B44" s="188" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="191"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="190"/>
     </row>
     <row r="45" spans="1:6" ht="28.05" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="B45" s="186" t="s">
+      <c r="B45" s="185" t="s">
         <v>777</v>
       </c>
-      <c r="C45" s="187"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="188"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -26894,7 +26932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
@@ -26939,10 +26977,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>746</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -26963,8 +27001,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
         <v>2.5</v>
@@ -26985,8 +27023,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -27007,8 +27045,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>7</v>
@@ -27029,8 +27067,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>5</v>
@@ -27051,8 +27089,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>9</v>
@@ -27067,12 +27105,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>1.5</v>
@@ -27087,10 +27125,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -27105,10 +27143,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>739</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -27354,10 +27392,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="224" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="226"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="8" t="s">
         <v>73</v>
       </c>
@@ -27662,10 +27700,10 @@
       <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A39" s="225" t="s">
+      <c r="A39" s="224" t="s">
         <v>789</v>
       </c>
-      <c r="B39" s="226"/>
+      <c r="B39" s="225"/>
       <c r="C39" s="8" t="s">
         <v>73</v>
       </c>
@@ -27759,10 +27797,10 @@
       <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A44" s="225" t="s">
+      <c r="A44" s="224" t="s">
         <v>798</v>
       </c>
-      <c r="B44" s="226"/>
+      <c r="B44" s="225"/>
       <c r="C44" s="8" t="s">
         <v>73</v>
       </c>
@@ -27875,10 +27913,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="225" t="s">
+      <c r="A50" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="226"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
@@ -28050,10 +28088,10 @@
       <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A59" s="225" t="s">
+      <c r="A59" s="224" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="226"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="8" t="s">
         <v>73</v>
       </c>
@@ -28166,10 +28204,10 @@
       <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A65" s="225" t="s">
+      <c r="A65" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="226"/>
+      <c r="B65" s="225"/>
       <c r="C65" s="8" t="s">
         <v>73</v>
       </c>
@@ -28493,10 +28531,10 @@
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A82" s="225" t="s">
+      <c r="A82" s="224" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="226"/>
+      <c r="B82" s="225"/>
       <c r="C82" s="8" t="s">
         <v>73</v>
       </c>
@@ -28632,10 +28670,10 @@
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A89" s="225" t="s">
+      <c r="A89" s="224" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="226"/>
+      <c r="B89" s="225"/>
       <c r="C89" s="8" t="s">
         <v>73</v>
       </c>
@@ -28702,7 +28740,7 @@
       <c r="C92" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="237" t="s">
+      <c r="D92" s="236" t="s">
         <v>894</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -28742,7 +28780,7 @@
       <c r="C94" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="D94" s="237" t="s">
+      <c r="D94" s="236" t="s">
         <v>895</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -28811,10 +28849,10 @@
       <c r="G97" s="55"/>
     </row>
     <row r="98" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A98" s="225" t="s">
+      <c r="A98" s="224" t="s">
         <v>848</v>
       </c>
-      <c r="B98" s="226"/>
+      <c r="B98" s="225"/>
       <c r="C98" s="8" t="s">
         <v>73</v>
       </c>
@@ -28841,7 +28879,7 @@
       <c r="C99" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="D99" s="237" t="s">
+      <c r="D99" s="236" t="s">
         <v>896</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -28910,10 +28948,10 @@
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A103" s="225" t="s">
+      <c r="A103" s="224" t="s">
         <v>187</v>
       </c>
-      <c r="B103" s="226"/>
+      <c r="B103" s="225"/>
       <c r="C103" s="8" t="s">
         <v>73</v>
       </c>
@@ -29007,10 +29045,10 @@
       <c r="G107" s="55"/>
     </row>
     <row r="108" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A108" s="225" t="s">
+      <c r="A108" s="224" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="226"/>
+      <c r="B108" s="225"/>
       <c r="C108" s="8" t="s">
         <v>73</v>
       </c>
@@ -29085,10 +29123,10 @@
       <c r="G111" s="55"/>
     </row>
     <row r="112" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A112" s="225" t="s">
+      <c r="A112" s="224" t="s">
         <v>826</v>
       </c>
-      <c r="B112" s="226"/>
+      <c r="B112" s="225"/>
       <c r="C112" s="8" t="s">
         <v>73</v>
       </c>
@@ -29153,7 +29191,7 @@
       <c r="C115" s="55" t="s">
         <v>832</v>
       </c>
-      <c r="D115" s="237" t="s">
+      <c r="D115" s="236" t="s">
         <v>897</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -29184,10 +29222,10 @@
       <c r="G116" s="55"/>
     </row>
     <row r="117" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A117" s="225" t="s">
+      <c r="A117" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="B117" s="226"/>
+      <c r="B117" s="225"/>
       <c r="C117" s="8" t="s">
         <v>682</v>
       </c>
@@ -31125,10 +31163,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>720</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31149,8 +31187,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31171,8 +31209,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31193,8 +31231,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31215,8 +31253,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31237,8 +31275,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31253,12 +31291,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31273,10 +31311,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Completed"))+SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Partial"))</f>
         <v>0</v>
@@ -31291,10 +31329,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -31445,10 +31483,10 @@
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A18" s="225" t="s">
+      <c r="A18" s="224" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="226"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="8" t="s">
         <v>73</v>
       </c>
@@ -31599,10 +31637,10 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A26" s="225" t="s">
+      <c r="A26" s="224" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="226"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="8" t="s">
         <v>73</v>
       </c>
@@ -32095,10 +32133,10 @@
       <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A52" s="225" t="s">
+      <c r="A52" s="224" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="226"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="68" t="s">
         <v>691</v>
       </c>
@@ -32477,10 +32515,10 @@
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A72" s="225" t="s">
+      <c r="A72" s="224" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="226"/>
+      <c r="B72" s="225"/>
       <c r="C72" s="8" t="s">
         <v>73</v>
       </c>
@@ -33625,10 +33663,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33649,8 +33687,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33671,8 +33709,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33693,8 +33731,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33715,8 +33753,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33737,8 +33775,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33753,12 +33791,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33773,10 +33811,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -33791,10 +33829,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -34021,10 +34059,10 @@
       <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="224" t="s">
         <v>484</v>
       </c>
-      <c r="B22" s="226"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
@@ -34213,10 +34251,10 @@
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A32" s="225" t="s">
+      <c r="A32" s="224" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="226"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
@@ -34424,10 +34462,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="225" t="s">
+      <c r="A43" s="224" t="s">
         <v>609</v>
       </c>
-      <c r="B43" s="226"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>
@@ -34973,10 +35011,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -34997,8 +35035,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35019,8 +35057,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35041,8 +35079,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35063,8 +35101,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35085,8 +35123,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35101,12 +35139,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35121,10 +35159,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Partial"))</f>
         <v>0</v>
@@ -35139,10 +35177,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -35274,10 +35312,10 @@
       <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A17" s="225" t="s">
+      <c r="A17" s="224" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="226"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
@@ -35390,10 +35428,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="224" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="226"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="8" t="s">
         <v>685</v>
       </c>
@@ -35525,10 +35563,10 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="224" t="s">
         <v>392</v>
       </c>
-      <c r="B30" s="226"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="8" t="s">
         <v>683</v>
       </c>
@@ -35679,10 +35717,10 @@
       <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A38" s="225" t="s">
+      <c r="A38" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="226"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="8" t="s">
         <v>684</v>
       </c>
@@ -35814,10 +35852,10 @@
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A45" s="225" t="s">
+      <c r="A45" s="224" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="226"/>
+      <c r="B45" s="225"/>
       <c r="C45" s="8" t="s">
         <v>73</v>
       </c>
@@ -36863,10 +36901,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>847</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36887,8 +36925,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36909,8 +36947,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36931,8 +36969,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36953,8 +36991,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36975,8 +37013,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36991,12 +37029,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -37011,10 +37049,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Partial"))</f>
         <v>0</v>
@@ -37029,10 +37067,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>445</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -37392,10 +37430,10 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A29" s="225" t="s">
+      <c r="A29" s="224" t="s">
         <v>859</v>
       </c>
-      <c r="B29" s="226"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="8" t="s">
         <v>680</v>
       </c>
@@ -37622,10 +37660,10 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A41" s="225" t="s">
+      <c r="A41" s="224" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="226"/>
+      <c r="B41" s="225"/>
       <c r="C41" s="8" t="s">
         <v>73</v>
       </c>
@@ -37795,10 +37833,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="225" t="s">
+      <c r="A50" s="224" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="226"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="68" t="s">
         <v>681</v>
       </c>
@@ -38597,10 +38635,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>558</v>
       </c>
-      <c r="D2" s="232"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38621,8 +38659,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38643,8 +38681,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38665,8 +38703,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="234"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38687,8 +38725,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38709,8 +38747,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="234"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38725,12 +38763,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="226" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38745,10 +38783,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38763,10 +38801,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="224" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="68" t="s">
         <v>674</v>
       </c>
@@ -39031,10 +39069,10 @@
       <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A24" s="225" t="s">
+      <c r="A24" s="224" t="s">
         <v>582</v>
       </c>
-      <c r="B24" s="226"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="8" t="s">
         <v>73</v>
       </c>
@@ -39261,10 +39299,10 @@
       <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="224" t="s">
         <v>670</v>
       </c>
-      <c r="B36" s="226"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="8" t="s">
         <v>675</v>
       </c>
@@ -39396,10 +39434,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="225" t="s">
+      <c r="A43" s="224" t="s">
         <v>626</v>
       </c>
-      <c r="B43" s="226"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="905">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3455,6 +3455,27 @@
     </r>
   </si>
   <si>
+    <t>The game runs on windows 8 and 10 preview (build 10041), does this count for partial?</t>
+  </si>
+  <si>
+    <t>Rogeubot</t>
+  </si>
+  <si>
+    <t>Terminal Audacity</t>
+  </si>
+  <si>
+    <t>Keyboard and Mouse</t>
+  </si>
+  <si>
+    <t>Single Player</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Accomplishment</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -3474,29 +3495,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> into the game console</t>
+      <t xml:space="preserve"> into the game console. See cheat instructions for opening the console. Activate the god cheat if you don't want him to die before he meets a second tank.</t>
     </r>
   </si>
   <si>
-    <t>The game runs on windows 8 and 10 preview (build 10041), does this count for partial?</t>
-  </si>
-  <si>
-    <t>Rogeubot</t>
-  </si>
-  <si>
-    <t>Terminal Audacity</t>
-  </si>
-  <si>
-    <t>Keyboard and Mouse</t>
-  </si>
-  <si>
-    <t>Single Player</t>
-  </si>
-  <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>Accomplishment</t>
+    <t>Windows 8 touch screens (e.g. Surface Pro) are supported for all interaction in the game</t>
   </si>
 </sst>
 </file>
@@ -5219,6 +5222,96 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5246,15 +5339,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5276,94 +5360,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5384,35 +5417,11 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5423,33 +5432,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5457,6 +5439,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5495,41 +5513,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5566,12 +5575,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="643">
@@ -24042,74 +24045,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.8125" style="33"/>
-    <col min="3" max="3" width="26.3125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="3.6875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25.1875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="13.1875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="4.8125" style="33" customWidth="1"/>
-    <col min="9" max="10" width="7.1875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="3.6875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="31.1875" style="33" customWidth="1"/>
-    <col min="13" max="16384" width="10.8125" style="33"/>
+    <col min="1" max="2" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="26.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="33" customWidth="1"/>
+    <col min="9" max="10" width="7.1640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="147"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="138" t="s">
+        <v>897</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="138" t="s">
         <v>898</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="237" t="s">
-        <v>899</v>
-      </c>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24130,41 +24133,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="147"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="142" t="s">
-        <v>900</v>
-      </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="147" t="s">
+        <v>899</v>
+      </c>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142" t="s">
-        <v>902</v>
-      </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="F6" s="147" t="s">
+        <v>901</v>
+      </c>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="144" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24175,49 +24178,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142" t="s">
-        <v>903</v>
-      </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
+      <c r="F7" s="147" t="s">
+        <v>902</v>
+      </c>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="140"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="140"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="142" t="s">
-        <v>901</v>
-      </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="147" t="s">
+        <v>900</v>
+      </c>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="141"/>
+      <c r="L9" s="146"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24236,18 +24239,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24290,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="139" t="s">
+      <c r="L12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24318,7 +24321,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="140"/>
+      <c r="L13" s="145"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24346,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="141"/>
+      <c r="L14" s="146"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24402,11 +24405,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24424,17 +24427,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="155" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="139" t="s">
+      <c r="L18" s="144" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24448,17 +24451,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="141"/>
+      <c r="L19" s="146"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24502,23 +24505,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="131" t="s">
         <v>846</v>
       </c>
-      <c r="G22" s="158">
+      <c r="G22" s="129">
         <f>'Project Grade'!$G$3</f>
         <v>0.79</v>
       </c>
-      <c r="H22" s="154"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="133">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="120" t="s">
+      <c r="L22" s="150" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24529,15 +24532,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="154"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="163"/>
+      <c r="J23" s="134"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="121"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24561,13 +24564,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="133" t="s">
+      <c r="F25" s="160" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24578,11 +24581,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="138"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24608,13 +24611,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="132" t="s">
+      <c r="F28" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24625,13 +24628,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126" t="s">
+      <c r="F29" s="156" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24642,28 +24645,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="131"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24684,46 +24687,39 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="121" t="s">
         <v>858</v>
       </c>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24737,12 +24733,19 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24788,75 +24791,75 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" style="33" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="2.3125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="4.8125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="9.6875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="2.3125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="4.8125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.6875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="2.3125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="33" customWidth="1"/>
     <col min="10" max="10" width="24" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.8125" style="33"/>
+    <col min="11" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="180"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="170"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="179" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="170"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="172"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="171" t="s">
+      <c r="G2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="172"/>
+      <c r="H2" s="182"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="173">
+      <c r="D3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="174"/>
+        <v>0.78</v>
+      </c>
+      <c r="E3" s="184"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="173">
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.79</v>
       </c>
-      <c r="H3" s="174"/>
+      <c r="H3" s="184"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>1.9999999999999997E-2</v>
+        <v>2.375E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24871,45 +24874,45 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="170" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="182"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="147"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="145" t="s">
+      <c r="G5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="137"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="183">
+      <c r="A6" s="172">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="103"/>
-      <c r="D6" s="164">
+      <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="E6" s="165"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E6" s="167"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="164">
+      <c r="G6" s="166">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="165"/>
+      <c r="H6" s="167"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>2.0000000000000004E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24991,11 +24994,11 @@
       <c r="C10" s="95"/>
       <c r="D10" s="99">
         <f>TCRs!$E$3</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="107">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="F10" s="103"/>
       <c r="G10" s="99">
@@ -25047,11 +25050,11 @@
       <c r="C12" s="96"/>
       <c r="D12" s="99">
         <f>TCRs!$E$7</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="107">
         <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="103"/>
       <c r="G12" s="99">
@@ -25092,7 +25095,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="166" t="s">
+      <c r="J13" s="185" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25122,7 +25125,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="166"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25133,7 +25136,7 @@
       </c>
       <c r="E15" s="101">
         <f>SUM(E9:E14)</f>
-        <v>-2.0000000000000004E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="73" t="s">
@@ -25143,22 +25146,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="166"/>
+      <c r="J15" s="185"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="168"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="168"/>
-      <c r="J16" s="166"/>
+      <c r="H16" s="174"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25181,7 +25184,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="166"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25209,7 +25212,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="167"/>
+      <c r="J18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25385,15 +25388,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="168"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="168" t="s">
+      <c r="G25" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="168"/>
+      <c r="H25" s="174"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25612,15 +25615,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="168" t="s">
+      <c r="D34" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="168"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="168" t="s">
+      <c r="G34" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="168"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25830,15 +25833,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="168" t="s">
+      <c r="D43" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="168"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="168" t="s">
+      <c r="G43" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="168"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26048,15 +26051,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="168" t="s">
+      <c r="D52" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="168"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="168" t="s">
+      <c r="G52" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="168"/>
+      <c r="H52" s="174"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26264,11 +26267,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
@@ -26277,20 +26289,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26310,66 +26313,66 @@
       <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.6875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="56" customWidth="1"/>
     <col min="4" max="4" width="8" style="56" customWidth="1"/>
-    <col min="5" max="5" width="7.6875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="94.3125" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="10.8125" style="56"/>
+    <col min="5" max="5" width="7.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="94.33203125" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="185" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
+    </row>
+    <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
+      <c r="A2" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A3" s="212" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
+    </row>
+    <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
+      <c r="A3" s="193" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="214"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="187" t="s">
         <v>651</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="196" t="s">
         <v>879</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="217"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26398,10 +26401,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="213"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26417,10 +26420,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="220"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26436,10 +26439,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="221" t="s">
+      <c r="A10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="221"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26455,10 +26458,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="221"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26474,10 +26477,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="221"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26493,10 +26496,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="220"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26512,10 +26515,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="219" t="s">
+      <c r="A14" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="220"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26531,10 +26534,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="223"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26551,11 +26554,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26574,306 +26577,333 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1">
       <c r="A20" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="187"/>
-    </row>
-    <row r="21" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
+    </row>
+    <row r="21" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="187" t="s">
         <v>743</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="200" t="s">
+      <c r="A22" s="205" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="208" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="201"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="201"/>
-      <c r="B24" s="209" t="s">
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.5">
+      <c r="A23" s="206"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="213"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.5">
+      <c r="A24" s="206"/>
+      <c r="B24" s="214" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="201"/>
-      <c r="B25" s="191" t="s">
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.5">
+      <c r="A25" s="206"/>
+      <c r="B25" s="217" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="193"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="201"/>
-      <c r="B26" s="206"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-    </row>
-    <row r="27" spans="1:6" ht="43.05" customHeight="1">
-      <c r="A27" s="201"/>
-      <c r="B27" s="191" t="s">
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="219"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.5">
+      <c r="A26" s="206"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213"/>
+    </row>
+    <row r="27" spans="1:6" ht="43" customHeight="1">
+      <c r="A27" s="206"/>
+      <c r="B27" s="217" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="193"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="201"/>
-      <c r="B28" s="206"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="201"/>
-      <c r="B29" s="191" t="s">
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.5">
+      <c r="A28" s="206"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.5">
+      <c r="A29" s="206"/>
+      <c r="B29" s="217" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="193"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="201"/>
-      <c r="B30" s="191" t="s">
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="219"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.5">
+      <c r="A30" s="206"/>
+      <c r="B30" s="217" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="201"/>
-      <c r="B31" s="191" t="s">
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="219"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.5">
+      <c r="A31" s="206"/>
+      <c r="B31" s="217" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="193"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="201"/>
-      <c r="B32" s="191" t="s">
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="219"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.5">
+      <c r="A32" s="206"/>
+      <c r="B32" s="217" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="193"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="201"/>
-      <c r="B33" s="191" t="s">
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.5">
+      <c r="A33" s="206"/>
+      <c r="B33" s="217" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="193"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="201"/>
-      <c r="B34" s="191" t="s">
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.5">
+      <c r="A34" s="206"/>
+      <c r="B34" s="217" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="193"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="201"/>
-      <c r="B35" s="191" t="s">
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.5">
+      <c r="A35" s="206"/>
+      <c r="B35" s="217" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="193"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.149999999999999" thickBot="1">
-      <c r="A36" s="202"/>
-      <c r="B36" s="194" t="s">
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
+    </row>
+    <row r="36" spans="1:6" ht="16" thickBot="1">
+      <c r="A36" s="207"/>
+      <c r="B36" s="220" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="196"/>
-    </row>
-    <row r="37" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
+    </row>
+    <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="223" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="190"/>
-    </row>
-    <row r="38" spans="1:6" ht="58.05" customHeight="1" thickBot="1">
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="225"/>
+    </row>
+    <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="223" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
+    </row>
+    <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="223" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="190"/>
-    </row>
-    <row r="40" spans="1:6" ht="39.75" thickBot="1">
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="188" t="s">
+      <c r="B40" s="223" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="190"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="225"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="188" t="s">
+      <c r="B41" s="223" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.149999999999999" thickBot="1">
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
+    </row>
+    <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="223" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="190"/>
-    </row>
-    <row r="43" spans="1:6" ht="39.75" thickBot="1">
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="225"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="223" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="190"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="223" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="190"/>
-    </row>
-    <row r="45" spans="1:6" ht="28.05" customHeight="1" thickBot="1">
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
+    </row>
+    <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="B45" s="185" t="s">
+      <c r="B45" s="187" t="s">
         <v>777</v>
       </c>
-      <c r="C45" s="186"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="187"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -26890,33 +26920,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26932,19 +26935,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -26960,7 +26963,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$249,$A$2)&amp;" "&amp;$A$2</f>
-        <v>12 Untested</v>
+        <v>0 Untested</v>
       </c>
       <c r="F1" s="7" t="str">
         <f>""&amp;COUNTIF(F$10:F$249,$A$2)&amp;" "&amp;$A$2</f>
@@ -26977,10 +26980,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>746</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -27001,11 +27004,11 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(F$10:F$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(F$10:F$249="Partial"))</f>
@@ -27023,8 +27026,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -27045,11 +27048,11 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Partial"))</f>
@@ -27067,11 +27070,11 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Partial"))</f>
@@ -27089,11 +27092,11 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Partial"))</f>
@@ -27105,12 +27108,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>1.5</v>
@@ -27125,10 +27128,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -27143,10 +27146,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>739</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -27163,7 +27166,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="11" spans="1:7" ht="78.5" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -27175,14 +27178,14 @@
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="39.75" thickBot="1">
+    <row r="12" spans="1:7" ht="39.5" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -27194,14 +27197,14 @@
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="26.65" thickBot="1">
+    <row r="13" spans="1:7" ht="26.5" thickBot="1">
       <c r="A13" s="62" t="s">
         <v>76</v>
       </c>
@@ -27213,14 +27216,14 @@
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="26.65" thickBot="1">
+    <row r="14" spans="1:7" ht="26.5" thickBot="1">
       <c r="A14" s="62" t="s">
         <v>76</v>
       </c>
@@ -27232,14 +27235,14 @@
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="62" t="s">
         <v>76</v>
       </c>
@@ -27251,14 +27254,14 @@
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="39.75" thickBot="1">
+    <row r="16" spans="1:7" ht="39.5" thickBot="1">
       <c r="A16" s="62" t="s">
         <v>76</v>
       </c>
@@ -27270,14 +27273,14 @@
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="52.9" thickBot="1">
+    <row r="17" spans="1:7" ht="52.5" thickBot="1">
       <c r="A17" s="62" t="s">
         <v>76</v>
       </c>
@@ -27289,14 +27292,14 @@
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="92.25" thickBot="1">
+    <row r="18" spans="1:7" ht="91.5" thickBot="1">
       <c r="A18" s="63" t="s">
         <v>79</v>
       </c>
@@ -27308,14 +27311,14 @@
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="39.75" thickBot="1">
+    <row r="19" spans="1:7" ht="39.5" thickBot="1">
       <c r="A19" s="63" t="s">
         <v>79</v>
       </c>
@@ -27327,14 +27330,14 @@
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="39.75" thickBot="1">
+    <row r="20" spans="1:7" ht="39.5" thickBot="1">
       <c r="A20" s="63" t="s">
         <v>79</v>
       </c>
@@ -27346,14 +27349,14 @@
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="66" thickBot="1">
+    <row r="21" spans="1:7" ht="78.5" thickBot="1">
       <c r="A21" s="65" t="s">
         <v>93</v>
       </c>
@@ -27365,14 +27368,14 @@
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="26.65" thickBot="1">
+    <row r="22" spans="1:7" ht="26.5" thickBot="1">
       <c r="A22" s="64" t="s">
         <v>81</v>
       </c>
@@ -27384,7 +27387,7 @@
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>62</v>
@@ -27392,10 +27395,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="224" t="s">
+      <c r="A23" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="225"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="8" t="s">
         <v>73</v>
       </c>
@@ -27412,7 +27415,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="52.9" thickBot="1">
+    <row r="24" spans="1:7" ht="52.5" thickBot="1">
       <c r="A24" s="62" t="s">
         <v>76</v>
       </c>
@@ -27431,7 +27434,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="66" thickBot="1">
+    <row r="25" spans="1:7" ht="65.5" thickBot="1">
       <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
@@ -27450,7 +27453,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1">
+    <row r="26" spans="1:7" ht="39.5" thickBot="1">
       <c r="A26" s="62" t="s">
         <v>76</v>
       </c>
@@ -27469,7 +27472,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="66" thickBot="1">
+    <row r="27" spans="1:7" ht="78.5" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -27488,7 +27491,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="39.75" thickBot="1">
+    <row r="28" spans="1:7" ht="39.5" thickBot="1">
       <c r="A28" s="63" t="s">
         <v>79</v>
       </c>
@@ -27507,7 +27510,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="105.4" thickBot="1">
+    <row r="29" spans="1:7" ht="104.5" thickBot="1">
       <c r="A29" s="63" t="s">
         <v>79</v>
       </c>
@@ -27526,7 +27529,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="52.9" thickBot="1">
+    <row r="30" spans="1:7" ht="52.5" thickBot="1">
       <c r="A30" s="63" t="s">
         <v>79</v>
       </c>
@@ -27545,7 +27548,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="66" thickBot="1">
+    <row r="31" spans="1:7" ht="78.5" thickBot="1">
       <c r="A31" s="63" t="s">
         <v>79</v>
       </c>
@@ -27564,7 +27567,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="144.75" thickBot="1">
+    <row r="32" spans="1:7" ht="156.5" thickBot="1">
       <c r="A32" s="63" t="s">
         <v>79</v>
       </c>
@@ -27583,7 +27586,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="39.75" thickBot="1">
+    <row r="33" spans="1:7" ht="39.5" thickBot="1">
       <c r="A33" s="63" t="s">
         <v>79</v>
       </c>
@@ -27597,14 +27600,14 @@
         <v>889</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="52.9" thickBot="1">
+    <row r="34" spans="1:7" ht="52.5" thickBot="1">
       <c r="A34" s="63" t="s">
         <v>79</v>
       </c>
@@ -27623,7 +27626,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="16" thickBot="1">
       <c r="A35" s="63" t="s">
         <v>79</v>
       </c>
@@ -27642,7 +27645,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="52.9" thickBot="1">
+    <row r="36" spans="1:7" ht="52.5" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>79</v>
       </c>
@@ -27661,7 +27664,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="37" spans="1:7" ht="91.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -27680,7 +27683,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="39.75" thickBot="1">
+    <row r="38" spans="1:7" ht="52.5" thickBot="1">
       <c r="A38" s="64" t="s">
         <v>81</v>
       </c>
@@ -27700,10 +27703,10 @@
       <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A39" s="224" t="s">
+      <c r="A39" s="226" t="s">
         <v>789</v>
       </c>
-      <c r="B39" s="225"/>
+      <c r="B39" s="227"/>
       <c r="C39" s="8" t="s">
         <v>73</v>
       </c>
@@ -27720,7 +27723,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="66" thickBot="1">
+    <row r="40" spans="1:7" ht="65.5" thickBot="1">
       <c r="A40" s="62" t="s">
         <v>76</v>
       </c>
@@ -27739,7 +27742,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="26.65" thickBot="1">
+    <row r="41" spans="1:7" ht="26.5" thickBot="1">
       <c r="A41" s="63" t="s">
         <v>79</v>
       </c>
@@ -27758,7 +27761,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="26.65" thickBot="1">
+    <row r="42" spans="1:7" ht="26.5" thickBot="1">
       <c r="A42" s="63" t="s">
         <v>79</v>
       </c>
@@ -27777,7 +27780,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="43" spans="1:7" ht="78.5" thickBot="1">
       <c r="A43" s="63" t="s">
         <v>79</v>
       </c>
@@ -27797,10 +27800,10 @@
       <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="226" t="s">
         <v>798</v>
       </c>
-      <c r="B44" s="225"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="8" t="s">
         <v>73</v>
       </c>
@@ -27817,7 +27820,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -27836,7 +27839,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="39.75" thickBot="1">
+    <row r="46" spans="1:7" ht="39.5" thickBot="1">
       <c r="A46" s="65" t="s">
         <v>93</v>
       </c>
@@ -27855,7 +27858,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="64" t="s">
         <v>81</v>
       </c>
@@ -27874,7 +27877,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" ht="16" thickBot="1">
       <c r="A48" s="64" t="s">
         <v>81</v>
       </c>
@@ -27893,7 +27896,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="52.9" thickBot="1">
+    <row r="49" spans="1:7" ht="52.5" thickBot="1">
       <c r="A49" s="64" t="s">
         <v>118</v>
       </c>
@@ -27913,10 +27916,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="224" t="s">
+      <c r="A50" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="225"/>
+      <c r="B50" s="227"/>
       <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
@@ -27933,7 +27936,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="62" t="s">
         <v>76</v>
       </c>
@@ -27952,7 +27955,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" ht="39.75" thickBot="1">
+    <row r="52" spans="1:7" ht="39.5" thickBot="1">
       <c r="A52" s="62" t="s">
         <v>76</v>
       </c>
@@ -27973,7 +27976,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="53" spans="1:7" ht="78.5" thickBot="1">
       <c r="A53" s="63" t="s">
         <v>79</v>
       </c>
@@ -27992,7 +27995,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="54" spans="1:7" ht="78.5" thickBot="1">
       <c r="A54" s="63" t="s">
         <v>79</v>
       </c>
@@ -28002,16 +28005,18 @@
       <c r="C54" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="55" t="s">
+        <v>904</v>
+      </c>
       <c r="E54" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="26.65" thickBot="1">
+    <row r="55" spans="1:7" ht="26.5" thickBot="1">
       <c r="A55" s="63" t="s">
         <v>79</v>
       </c>
@@ -28030,7 +28035,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="26.65" thickBot="1">
+    <row r="56" spans="1:7" ht="26.5" thickBot="1">
       <c r="A56" s="64" t="s">
         <v>81</v>
       </c>
@@ -28049,7 +28054,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" ht="52.9" thickBot="1">
+    <row r="57" spans="1:7" ht="52.5" thickBot="1">
       <c r="A57" s="64" t="s">
         <v>81</v>
       </c>
@@ -28068,7 +28073,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="58" spans="1:7" ht="78.5" thickBot="1">
       <c r="A58" s="64" t="s">
         <v>81</v>
       </c>
@@ -28080,7 +28085,7 @@
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>62</v>
@@ -28088,10 +28093,10 @@
       <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="225"/>
+      <c r="B59" s="227"/>
       <c r="C59" s="8" t="s">
         <v>73</v>
       </c>
@@ -28108,7 +28113,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="26.65" thickBot="1">
+    <row r="60" spans="1:7" ht="39.5" thickBot="1">
       <c r="A60" s="62" t="s">
         <v>76</v>
       </c>
@@ -28127,7 +28132,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" ht="26.65" thickBot="1">
+    <row r="61" spans="1:7" ht="26.5" thickBot="1">
       <c r="A61" s="62" t="s">
         <v>76</v>
       </c>
@@ -28146,7 +28151,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="62" spans="1:7" ht="16" thickBot="1">
       <c r="A62" s="63" t="s">
         <v>79</v>
       </c>
@@ -28165,7 +28170,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" ht="26.65" thickBot="1">
+    <row r="63" spans="1:7" ht="26.5" thickBot="1">
       <c r="A63" s="63" t="s">
         <v>79</v>
       </c>
@@ -28184,7 +28189,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="64" spans="1:7" ht="16" thickBot="1">
       <c r="A64" s="64" t="s">
         <v>81</v>
       </c>
@@ -28204,10 +28209,10 @@
       <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A65" s="224" t="s">
+      <c r="A65" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="225"/>
+      <c r="B65" s="227"/>
       <c r="C65" s="8" t="s">
         <v>73</v>
       </c>
@@ -28224,7 +28229,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.65" thickBot="1">
+    <row r="66" spans="1:7" ht="26.5" thickBot="1">
       <c r="A66" s="62" t="s">
         <v>76</v>
       </c>
@@ -28243,7 +28248,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="67" spans="1:7" ht="16" thickBot="1">
       <c r="A67" s="62" t="s">
         <v>76</v>
       </c>
@@ -28262,7 +28267,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" ht="26.65" thickBot="1">
+    <row r="68" spans="1:7" ht="26.5" thickBot="1">
       <c r="A68" s="62" t="s">
         <v>76</v>
       </c>
@@ -28281,7 +28286,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" ht="39.75" thickBot="1">
+    <row r="69" spans="1:7" ht="39.5" thickBot="1">
       <c r="A69" s="63" t="s">
         <v>79</v>
       </c>
@@ -28300,7 +28305,7 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" ht="52.9" thickBot="1">
+    <row r="70" spans="1:7" ht="52.5" thickBot="1">
       <c r="A70" s="63" t="s">
         <v>79</v>
       </c>
@@ -28319,7 +28324,7 @@
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" ht="39.75" thickBot="1">
+    <row r="71" spans="1:7" ht="39.5" thickBot="1">
       <c r="A71" s="63" t="s">
         <v>79</v>
       </c>
@@ -28338,7 +28343,7 @@
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="1:7" ht="66" thickBot="1">
+    <row r="72" spans="1:7" ht="65.5" thickBot="1">
       <c r="A72" s="63" t="s">
         <v>79</v>
       </c>
@@ -28357,7 +28362,7 @@
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" ht="52.9" thickBot="1">
+    <row r="73" spans="1:7" ht="52.5" thickBot="1">
       <c r="A73" s="63" t="s">
         <v>79</v>
       </c>
@@ -28376,7 +28381,7 @@
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" ht="52.9" thickBot="1">
+    <row r="74" spans="1:7" ht="52.5" thickBot="1">
       <c r="A74" s="63" t="s">
         <v>79</v>
       </c>
@@ -28395,7 +28400,7 @@
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" ht="66" thickBot="1">
+    <row r="75" spans="1:7" ht="65.5" thickBot="1">
       <c r="A75" s="63" t="s">
         <v>79</v>
       </c>
@@ -28414,7 +28419,7 @@
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" ht="26.65" thickBot="1">
+    <row r="76" spans="1:7" ht="39.5" thickBot="1">
       <c r="A76" s="63" t="s">
         <v>79</v>
       </c>
@@ -28426,14 +28431,14 @@
       </c>
       <c r="D76" s="55"/>
       <c r="E76" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" ht="26.65" thickBot="1">
+    <row r="77" spans="1:7" ht="26.5" thickBot="1">
       <c r="A77" s="82" t="s">
         <v>93</v>
       </c>
@@ -28452,7 +28457,7 @@
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="78" spans="1:7" ht="78.5" thickBot="1">
       <c r="A78" s="82" t="s">
         <v>93</v>
       </c>
@@ -28471,7 +28476,7 @@
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" ht="105.4" thickBot="1">
+    <row r="79" spans="1:7" ht="117.5" thickBot="1">
       <c r="A79" s="64" t="s">
         <v>81</v>
       </c>
@@ -28490,7 +28495,7 @@
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" ht="52.9" thickBot="1">
+    <row r="80" spans="1:7" ht="52.5" thickBot="1">
       <c r="A80" s="64" t="s">
         <v>81</v>
       </c>
@@ -28509,7 +28514,7 @@
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="81" spans="1:7" ht="78.5" thickBot="1">
       <c r="A81" s="64" t="s">
         <v>81</v>
       </c>
@@ -28531,10 +28536,10 @@
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A82" s="224" t="s">
+      <c r="A82" s="226" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="225"/>
+      <c r="B82" s="227"/>
       <c r="C82" s="8" t="s">
         <v>73</v>
       </c>
@@ -28551,7 +28556,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="26.65" thickBot="1">
+    <row r="83" spans="1:7" ht="26.5" thickBot="1">
       <c r="A83" s="62" t="s">
         <v>76</v>
       </c>
@@ -28570,7 +28575,7 @@
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="84" spans="1:7" ht="16" thickBot="1">
       <c r="A84" s="62" t="s">
         <v>79</v>
       </c>
@@ -28589,7 +28594,7 @@
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" ht="26.65" thickBot="1">
+    <row r="85" spans="1:7" ht="26.5" thickBot="1">
       <c r="A85" s="63" t="s">
         <v>93</v>
       </c>
@@ -28608,7 +28613,7 @@
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="1:7" ht="26.65" thickBot="1">
+    <row r="86" spans="1:7" ht="26.5" thickBot="1">
       <c r="A86" s="65" t="s">
         <v>93</v>
       </c>
@@ -28627,7 +28632,7 @@
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="87" spans="1:7" ht="78.5" thickBot="1">
       <c r="A87" s="64" t="s">
         <v>81</v>
       </c>
@@ -28648,7 +28653,7 @@
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="1:7" ht="39.75" thickBot="1">
+    <row r="88" spans="1:7" ht="39.5" thickBot="1">
       <c r="A88" s="66" t="s">
         <v>118</v>
       </c>
@@ -28670,10 +28675,10 @@
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A89" s="224" t="s">
+      <c r="A89" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="225"/>
+      <c r="B89" s="227"/>
       <c r="C89" s="8" t="s">
         <v>73</v>
       </c>
@@ -28690,7 +28695,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="26.65" thickBot="1">
+    <row r="90" spans="1:7" ht="26.5" thickBot="1">
       <c r="A90" s="62" t="s">
         <v>76</v>
       </c>
@@ -28711,7 +28716,7 @@
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="91" spans="1:7" ht="16" thickBot="1">
       <c r="A91" s="62" t="s">
         <v>76</v>
       </c>
@@ -28730,7 +28735,7 @@
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="1:7" ht="52.9" thickBot="1">
+    <row r="92" spans="1:7" ht="52.5" thickBot="1">
       <c r="A92" s="62" t="s">
         <v>76</v>
       </c>
@@ -28740,7 +28745,7 @@
       <c r="C92" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="236" t="s">
+      <c r="D92" s="120" t="s">
         <v>894</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -28751,7 +28756,7 @@
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="1:7" ht="52.9" thickBot="1">
+    <row r="93" spans="1:7" ht="52.5" thickBot="1">
       <c r="A93" s="63" t="s">
         <v>79</v>
       </c>
@@ -28770,7 +28775,7 @@
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="1:7" ht="131.65" thickBot="1">
+    <row r="94" spans="1:7" ht="143.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -28780,7 +28785,7 @@
       <c r="C94" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="D94" s="236" t="s">
+      <c r="D94" s="120" t="s">
         <v>895</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -28791,7 +28796,7 @@
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" ht="39.75" thickBot="1">
+    <row r="95" spans="1:7" ht="39.5" thickBot="1">
       <c r="A95" s="63" t="s">
         <v>79</v>
       </c>
@@ -28810,7 +28815,7 @@
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="1:7" ht="26.65" thickBot="1">
+    <row r="96" spans="1:7" ht="26.5" thickBot="1">
       <c r="A96" s="65" t="s">
         <v>93</v>
       </c>
@@ -28829,7 +28834,7 @@
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" ht="26.65" thickBot="1">
+    <row r="97" spans="1:7" ht="26.5" thickBot="1">
       <c r="A97" s="64" t="s">
         <v>81</v>
       </c>
@@ -28849,10 +28854,10 @@
       <c r="G97" s="55"/>
     </row>
     <row r="98" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A98" s="224" t="s">
+      <c r="A98" s="226" t="s">
         <v>848</v>
       </c>
-      <c r="B98" s="225"/>
+      <c r="B98" s="227"/>
       <c r="C98" s="8" t="s">
         <v>73</v>
       </c>
@@ -28869,7 +28874,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="39.75" thickBot="1">
+    <row r="99" spans="1:7" ht="78.5" thickBot="1">
       <c r="A99" s="63" t="s">
         <v>79</v>
       </c>
@@ -28879,18 +28884,18 @@
       <c r="C99" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="D99" s="236" t="s">
-        <v>896</v>
+      <c r="D99" s="120" t="s">
+        <v>903</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="1:7" ht="26.65" thickBot="1">
+    <row r="100" spans="1:7" ht="26.5" thickBot="1">
       <c r="A100" s="64" t="s">
         <v>81</v>
       </c>
@@ -28909,7 +28914,7 @@
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" ht="26.65" thickBot="1">
+    <row r="101" spans="1:7" ht="26.5" thickBot="1">
       <c r="A101" s="64" t="s">
         <v>81</v>
       </c>
@@ -28928,7 +28933,7 @@
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="1:7" ht="26.65" thickBot="1">
+    <row r="102" spans="1:7" ht="26.5" thickBot="1">
       <c r="A102" s="66" t="s">
         <v>118</v>
       </c>
@@ -28948,10 +28953,10 @@
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A103" s="224" t="s">
+      <c r="A103" s="226" t="s">
         <v>187</v>
       </c>
-      <c r="B103" s="225"/>
+      <c r="B103" s="227"/>
       <c r="C103" s="8" t="s">
         <v>73</v>
       </c>
@@ -28968,7 +28973,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="66" thickBot="1">
+    <row r="104" spans="1:7" ht="65.5" thickBot="1">
       <c r="A104" s="62" t="s">
         <v>76</v>
       </c>
@@ -28987,7 +28992,7 @@
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" ht="39.75" thickBot="1">
+    <row r="105" spans="1:7" ht="39.5" thickBot="1">
       <c r="A105" s="63" t="s">
         <v>79</v>
       </c>
@@ -29006,7 +29011,7 @@
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="1:7" ht="26.65" thickBot="1">
+    <row r="106" spans="1:7" ht="26.5" thickBot="1">
       <c r="A106" s="65" t="s">
         <v>93</v>
       </c>
@@ -29025,7 +29030,7 @@
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" ht="26.65" thickBot="1">
+    <row r="107" spans="1:7" ht="26.5" thickBot="1">
       <c r="A107" s="64" t="s">
         <v>81</v>
       </c>
@@ -29045,10 +29050,10 @@
       <c r="G107" s="55"/>
     </row>
     <row r="108" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A108" s="224" t="s">
+      <c r="A108" s="226" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="225"/>
+      <c r="B108" s="227"/>
       <c r="C108" s="8" t="s">
         <v>73</v>
       </c>
@@ -29065,7 +29070,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="52.9" thickBot="1">
+    <row r="109" spans="1:7" ht="52.5" thickBot="1">
       <c r="A109" s="62" t="s">
         <v>76</v>
       </c>
@@ -29084,7 +29089,7 @@
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="110" spans="1:7" ht="16" thickBot="1">
       <c r="A110" s="62" t="s">
         <v>76</v>
       </c>
@@ -29103,7 +29108,7 @@
       </c>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" ht="118.5" thickBot="1">
+    <row r="111" spans="1:7" ht="117.5" thickBot="1">
       <c r="A111" s="63" t="s">
         <v>79</v>
       </c>
@@ -29123,10 +29128,10 @@
       <c r="G111" s="55"/>
     </row>
     <row r="112" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A112" s="224" t="s">
+      <c r="A112" s="226" t="s">
         <v>826</v>
       </c>
-      <c r="B112" s="225"/>
+      <c r="B112" s="227"/>
       <c r="C112" s="8" t="s">
         <v>73</v>
       </c>
@@ -29143,7 +29148,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="113" spans="1:7" ht="16" thickBot="1">
       <c r="A113" s="62" t="s">
         <v>76</v>
       </c>
@@ -29162,7 +29167,7 @@
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="114" spans="1:7" ht="16" thickBot="1">
       <c r="A114" s="64" t="s">
         <v>81</v>
       </c>
@@ -29181,7 +29186,7 @@
       </c>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" ht="39.75" thickBot="1">
+    <row r="115" spans="1:7" ht="39.5" thickBot="1">
       <c r="A115" s="66" t="s">
         <v>118</v>
       </c>
@@ -29191,8 +29196,8 @@
       <c r="C115" s="55" t="s">
         <v>832</v>
       </c>
-      <c r="D115" s="236" t="s">
-        <v>897</v>
+      <c r="D115" s="120" t="s">
+        <v>896</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>66</v>
@@ -29202,7 +29207,7 @@
       </c>
       <c r="G115" s="55"/>
     </row>
-    <row r="116" spans="1:7" ht="39.75" thickBot="1">
+    <row r="116" spans="1:7" ht="39.5" thickBot="1">
       <c r="A116" s="64" t="s">
         <v>736</v>
       </c>
@@ -29222,10 +29227,10 @@
       <c r="G116" s="55"/>
     </row>
     <row r="117" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A117" s="224" t="s">
+      <c r="A117" s="226" t="s">
         <v>199</v>
       </c>
-      <c r="B117" s="225"/>
+      <c r="B117" s="227"/>
       <c r="C117" s="8" t="s">
         <v>682</v>
       </c>
@@ -29242,7 +29247,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="118" spans="1:7" ht="26.5" thickBot="1">
       <c r="A118" s="62" t="s">
         <v>76</v>
       </c>
@@ -29261,7 +29266,7 @@
       </c>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" ht="26.65" thickBot="1">
+    <row r="119" spans="1:7" ht="26.5" thickBot="1">
       <c r="A119" s="63" t="s">
         <v>79</v>
       </c>
@@ -29280,7 +29285,7 @@
       </c>
       <c r="G119" s="55"/>
     </row>
-    <row r="120" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="120" spans="1:7" ht="16" thickBot="1">
       <c r="A120" s="63" t="s">
         <v>79</v>
       </c>
@@ -29299,7 +29304,7 @@
       </c>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" ht="26.65" thickBot="1">
+    <row r="121" spans="1:7" ht="26.5" thickBot="1">
       <c r="A121" s="65" t="s">
         <v>93</v>
       </c>
@@ -29318,7 +29323,7 @@
       </c>
       <c r="G121" s="55"/>
     </row>
-    <row r="122" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="122" spans="1:7" ht="16" thickBot="1">
       <c r="A122" s="64" t="s">
         <v>81</v>
       </c>
@@ -29337,7 +29342,7 @@
       </c>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" ht="26.65" thickBot="1">
+    <row r="123" spans="1:7" ht="26.5" thickBot="1">
       <c r="A123" s="64" t="s">
         <v>81</v>
       </c>
@@ -29356,7 +29361,7 @@
       </c>
       <c r="G123" s="55"/>
     </row>
-    <row r="124" spans="1:7" ht="39.75" thickBot="1">
+    <row r="124" spans="1:7" ht="39.5" thickBot="1">
       <c r="A124" s="66" t="s">
         <v>118</v>
       </c>
@@ -29375,7 +29380,7 @@
       </c>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="125" spans="1:7" ht="16" thickBot="1">
       <c r="A125" s="64" t="s">
         <v>736</v>
       </c>
@@ -29396,13 +29401,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29412,6 +29410,13 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -31118,19 +31123,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -31163,10 +31168,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>720</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31187,8 +31192,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31209,8 +31214,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31231,8 +31236,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31253,8 +31258,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31275,8 +31280,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31291,12 +31296,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -31311,10 +31316,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Completed"))+SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Partial"))</f>
         <v>0</v>
@@ -31329,10 +31334,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -31349,7 +31354,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -31368,7 +31373,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="26.65" thickBot="1">
+    <row r="12" spans="1:7" ht="26.5" thickBot="1">
       <c r="A12" s="86" t="s">
         <v>76</v>
       </c>
@@ -31387,7 +31392,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="87" t="s">
         <v>79</v>
       </c>
@@ -31406,7 +31411,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="52.9" thickBot="1">
+    <row r="14" spans="1:7" ht="52.5" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>79</v>
       </c>
@@ -31425,7 +31430,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="39.75" thickBot="1">
+    <row r="15" spans="1:7" ht="39.5" thickBot="1">
       <c r="A15" s="89" t="s">
         <v>81</v>
       </c>
@@ -31444,7 +31449,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="26.65" thickBot="1">
+    <row r="16" spans="1:7" ht="26.5" thickBot="1">
       <c r="A16" s="90" t="s">
         <v>118</v>
       </c>
@@ -31483,10 +31488,10 @@
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="226" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="225"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="8" t="s">
         <v>73</v>
       </c>
@@ -31503,7 +31508,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.65" thickBot="1">
+    <row r="19" spans="1:7" ht="26.5" thickBot="1">
       <c r="A19" s="86" t="s">
         <v>76</v>
       </c>
@@ -31522,7 +31527,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="66" thickBot="1">
+    <row r="20" spans="1:7" ht="65.5" thickBot="1">
       <c r="A20" s="87" t="s">
         <v>79</v>
       </c>
@@ -31541,7 +31546,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="21" spans="1:7" ht="78.5" thickBot="1">
       <c r="A21" s="87" t="s">
         <v>79</v>
       </c>
@@ -31560,7 +31565,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="92.25" thickBot="1">
+    <row r="22" spans="1:7" ht="91.5" thickBot="1">
       <c r="A22" s="87" t="s">
         <v>79</v>
       </c>
@@ -31579,7 +31584,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="89" t="s">
         <v>81</v>
       </c>
@@ -31598,7 +31603,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="90" t="s">
         <v>118</v>
       </c>
@@ -31617,7 +31622,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="91" t="s">
         <v>736</v>
       </c>
@@ -31637,10 +31642,10 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A26" s="224" t="s">
+      <c r="A26" s="226" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="225"/>
+      <c r="B26" s="227"/>
       <c r="C26" s="8" t="s">
         <v>73</v>
       </c>
@@ -31657,7 +31662,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26.65" thickBot="1">
+    <row r="27" spans="1:7" ht="26.5" thickBot="1">
       <c r="A27" s="86" t="s">
         <v>76</v>
       </c>
@@ -31676,7 +31681,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="86" t="s">
         <v>76</v>
       </c>
@@ -31695,7 +31700,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="26.65" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="86" t="s">
         <v>76</v>
       </c>
@@ -31714,7 +31719,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="87" t="s">
         <v>79</v>
       </c>
@@ -31733,7 +31738,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="26.65" thickBot="1">
+    <row r="31" spans="1:7" ht="26.5" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>79</v>
       </c>
@@ -31752,7 +31757,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="16" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -31790,7 +31795,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="87" t="s">
         <v>79</v>
       </c>
@@ -31809,7 +31814,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="39.75" thickBot="1">
+    <row r="35" spans="1:7" ht="39.5" thickBot="1">
       <c r="A35" s="87" t="s">
         <v>79</v>
       </c>
@@ -31828,7 +31833,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="26.65" thickBot="1">
+    <row r="36" spans="1:7" ht="26.5" thickBot="1">
       <c r="A36" s="88" t="s">
         <v>93</v>
       </c>
@@ -31847,7 +31852,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="26.65" thickBot="1">
+    <row r="37" spans="1:7" ht="26.5" thickBot="1">
       <c r="A37" s="89" t="s">
         <v>81</v>
       </c>
@@ -31866,7 +31871,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="38" spans="1:7" ht="16" thickBot="1">
       <c r="A38" s="89" t="s">
         <v>81</v>
       </c>
@@ -31885,7 +31890,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="26.65" thickBot="1">
+    <row r="39" spans="1:7" ht="26.5" thickBot="1">
       <c r="A39" s="89" t="s">
         <v>81</v>
       </c>
@@ -31904,7 +31909,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" ht="26.5" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>81</v>
       </c>
@@ -31923,7 +31928,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="26.65" thickBot="1">
+    <row r="41" spans="1:7" ht="26.5" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>81</v>
       </c>
@@ -31942,7 +31947,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="26.5" thickBot="1">
       <c r="A42" s="90" t="s">
         <v>118</v>
       </c>
@@ -31961,7 +31966,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="26.65" thickBot="1">
+    <row r="43" spans="1:7" ht="26.5" thickBot="1">
       <c r="A43" s="90" t="s">
         <v>118</v>
       </c>
@@ -31980,7 +31985,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" ht="26.65" thickBot="1">
+    <row r="44" spans="1:7" ht="26.5" thickBot="1">
       <c r="A44" s="90" t="s">
         <v>118</v>
       </c>
@@ -31999,7 +32004,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="90" t="s">
         <v>118</v>
       </c>
@@ -32018,7 +32023,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="16" thickBot="1">
       <c r="A46" s="90" t="s">
         <v>118</v>
       </c>
@@ -32037,7 +32042,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="91" t="s">
         <v>736</v>
       </c>
@@ -32056,7 +32061,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="26.65" thickBot="1">
+    <row r="48" spans="1:7" ht="26.5" thickBot="1">
       <c r="A48" s="91" t="s">
         <v>736</v>
       </c>
@@ -32075,7 +32080,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="26.65" thickBot="1">
+    <row r="49" spans="1:7" ht="26.5" thickBot="1">
       <c r="A49" s="91" t="s">
         <v>736</v>
       </c>
@@ -32094,7 +32099,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="26.65" thickBot="1">
+    <row r="50" spans="1:7" ht="26.5" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>736</v>
       </c>
@@ -32113,7 +32118,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="91" t="s">
         <v>736</v>
       </c>
@@ -32133,10 +32138,10 @@
       <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A52" s="224" t="s">
+      <c r="A52" s="226" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="225"/>
+      <c r="B52" s="227"/>
       <c r="C52" s="68" t="s">
         <v>691</v>
       </c>
@@ -32172,7 +32177,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="26.65" thickBot="1">
+    <row r="54" spans="1:7" ht="26.5" thickBot="1">
       <c r="A54" s="86" t="s">
         <v>76</v>
       </c>
@@ -32191,7 +32196,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="55" spans="1:7" ht="26.5" thickBot="1">
       <c r="A55" s="86" t="s">
         <v>76</v>
       </c>
@@ -32210,7 +32215,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="39.75" thickBot="1">
+    <row r="56" spans="1:7" ht="39.5" thickBot="1">
       <c r="A56" s="87" t="s">
         <v>79</v>
       </c>
@@ -32229,7 +32234,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" ht="26.65" thickBot="1">
+    <row r="57" spans="1:7" ht="26.5" thickBot="1">
       <c r="A57" s="87" t="s">
         <v>79</v>
       </c>
@@ -32248,7 +32253,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" ht="26.65" thickBot="1">
+    <row r="58" spans="1:7" ht="26.5" thickBot="1">
       <c r="A58" s="87" t="s">
         <v>79</v>
       </c>
@@ -32267,7 +32272,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" ht="26.5" thickBot="1">
       <c r="A59" s="88" t="s">
         <v>93</v>
       </c>
@@ -32286,7 +32291,7 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="60" spans="1:7" ht="16" thickBot="1">
       <c r="A60" s="88" t="s">
         <v>93</v>
       </c>
@@ -32305,7 +32310,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" ht="26.65" thickBot="1">
+    <row r="61" spans="1:7" ht="26.5" thickBot="1">
       <c r="A61" s="117" t="s">
         <v>81</v>
       </c>
@@ -32324,7 +32329,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" ht="26.65" thickBot="1">
+    <row r="62" spans="1:7" ht="26.5" thickBot="1">
       <c r="A62" s="118" t="s">
         <v>81</v>
       </c>
@@ -32343,7 +32348,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" ht="26.65" thickBot="1">
+    <row r="63" spans="1:7" ht="39.5" thickBot="1">
       <c r="A63" s="118" t="s">
         <v>81</v>
       </c>
@@ -32362,7 +32367,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="64" spans="1:7" ht="16" thickBot="1">
       <c r="A64" s="118" t="s">
         <v>81</v>
       </c>
@@ -32381,7 +32386,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="65" spans="1:7" ht="16" thickBot="1">
       <c r="A65" s="118" t="s">
         <v>81</v>
       </c>
@@ -32400,7 +32405,7 @@
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="1:7" ht="26.65" thickBot="1">
+    <row r="66" spans="1:7" ht="26.5" thickBot="1">
       <c r="A66" s="119" t="s">
         <v>118</v>
       </c>
@@ -32419,7 +32424,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" ht="26.65" thickBot="1">
+    <row r="67" spans="1:7" ht="26.5" thickBot="1">
       <c r="A67" s="119" t="s">
         <v>118</v>
       </c>
@@ -32438,7 +32443,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" ht="26.65" thickBot="1">
+    <row r="68" spans="1:7" ht="26.5" thickBot="1">
       <c r="A68" s="119" t="s">
         <v>118</v>
       </c>
@@ -32457,7 +32462,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="69" spans="1:7" ht="16" thickBot="1">
       <c r="A69" s="119" t="s">
         <v>118</v>
       </c>
@@ -32476,7 +32481,7 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="70" spans="1:7" ht="16" thickBot="1">
       <c r="A70" s="119" t="s">
         <v>118</v>
       </c>
@@ -32495,7 +32500,7 @@
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" ht="26.65" thickBot="1">
+    <row r="71" spans="1:7" ht="26.5" thickBot="1">
       <c r="A71" s="91" t="s">
         <v>736</v>
       </c>
@@ -32515,10 +32520,10 @@
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A72" s="224" t="s">
+      <c r="A72" s="226" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="225"/>
+      <c r="B72" s="227"/>
       <c r="C72" s="8" t="s">
         <v>73</v>
       </c>
@@ -32535,7 +32540,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="73" spans="1:7" ht="16" thickBot="1">
       <c r="A73" s="86" t="s">
         <v>76</v>
       </c>
@@ -32554,7 +32559,7 @@
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" ht="39.75" thickBot="1">
+    <row r="74" spans="1:7" ht="39.5" thickBot="1">
       <c r="A74" s="86" t="s">
         <v>76</v>
       </c>
@@ -32573,7 +32578,7 @@
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" ht="39.75" thickBot="1">
+    <row r="75" spans="1:7" ht="39.5" thickBot="1">
       <c r="A75" s="87" t="s">
         <v>79</v>
       </c>
@@ -32592,7 +32597,7 @@
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" ht="26.65" thickBot="1">
+    <row r="76" spans="1:7" ht="26.5" thickBot="1">
       <c r="A76" s="87" t="s">
         <v>79</v>
       </c>
@@ -32611,7 +32616,7 @@
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" ht="26.65" thickBot="1">
+    <row r="77" spans="1:7" ht="26.5" thickBot="1">
       <c r="A77" s="88" t="s">
         <v>93</v>
       </c>
@@ -32630,7 +32635,7 @@
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" ht="26.65" thickBot="1">
+    <row r="78" spans="1:7" ht="26.5" thickBot="1">
       <c r="A78" s="88" t="s">
         <v>93</v>
       </c>
@@ -32649,7 +32654,7 @@
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="79" spans="1:7" ht="16" thickBot="1">
       <c r="A79" s="89" t="s">
         <v>81</v>
       </c>
@@ -32668,7 +32673,7 @@
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="80" spans="1:7" ht="16" thickBot="1">
       <c r="A80" s="89" t="s">
         <v>81</v>
       </c>
@@ -32687,7 +32692,7 @@
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" ht="26.65" thickBot="1">
+    <row r="81" spans="1:7" ht="26.5" thickBot="1">
       <c r="A81" s="90" t="s">
         <v>118</v>
       </c>
@@ -32706,7 +32711,7 @@
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="82" spans="1:7" ht="16" thickBot="1">
       <c r="A82" s="90" t="s">
         <v>118</v>
       </c>
@@ -32725,7 +32730,7 @@
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" ht="26.65" thickBot="1">
+    <row r="83" spans="1:7" ht="26.5" thickBot="1">
       <c r="A83" s="91" t="s">
         <v>736</v>
       </c>
@@ -32744,7 +32749,7 @@
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="1:7" ht="26.65" thickBot="1">
+    <row r="84" spans="1:7" ht="26.5" thickBot="1">
       <c r="A84" s="91" t="s">
         <v>736</v>
       </c>
@@ -32763,7 +32768,7 @@
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" ht="26.65" thickBot="1">
+    <row r="85" spans="1:7" ht="26.5" thickBot="1">
       <c r="A85" s="91" t="s">
         <v>736</v>
       </c>
@@ -32782,7 +32787,7 @@
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="1:7" ht="26.65" thickBot="1">
+    <row r="86" spans="1:7" ht="26.5" thickBot="1">
       <c r="A86" s="91" t="s">
         <v>736</v>
       </c>
@@ -32801,7 +32806,7 @@
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" ht="26.65" thickBot="1">
+    <row r="87" spans="1:7" ht="26.5" thickBot="1">
       <c r="A87" s="91" t="s">
         <v>736</v>
       </c>
@@ -32820,7 +32825,7 @@
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="1:7" ht="26.65" thickBot="1">
+    <row r="88" spans="1:7" ht="26.5" thickBot="1">
       <c r="A88" s="91" t="s">
         <v>736</v>
       </c>
@@ -32839,28 +32844,28 @@
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="90" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="89" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="90" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" spans="1:7" s="24" customFormat="1" ht="15.5"/>
     <row r="93" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="94" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="96" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="94" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="96" spans="1:7" s="24" customFormat="1" ht="15.5"/>
     <row r="97" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
     <row r="102" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
-    <row r="105" s="24" customFormat="1" ht="15.75"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
-    <row r="108" s="24" customFormat="1" ht="15.75"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
-    <row r="110" s="24" customFormat="1" ht="15.75"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
+    <row r="105" s="24" customFormat="1" ht="15.5"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
+    <row r="108" s="24" customFormat="1" ht="15.5"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
+    <row r="110" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:B9"/>
@@ -33618,19 +33623,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -33663,10 +33668,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33687,8 +33692,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33709,8 +33714,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33731,8 +33736,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33753,8 +33758,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33775,8 +33780,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33791,12 +33796,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -33811,10 +33816,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -33829,10 +33834,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -33849,7 +33854,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.65" thickBot="1">
+    <row r="11" spans="1:7" ht="26.5" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -33868,7 +33873,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="26.65" thickBot="1">
+    <row r="12" spans="1:7" ht="26.5" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -33887,7 +33892,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>79</v>
       </c>
@@ -33906,7 +33911,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="63" t="s">
         <v>79</v>
       </c>
@@ -33925,7 +33930,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="63" t="s">
         <v>79</v>
       </c>
@@ -33944,7 +33949,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="65" t="s">
         <v>93</v>
       </c>
@@ -33963,7 +33968,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="52.9" thickBot="1">
+    <row r="17" spans="1:7" ht="52.5" thickBot="1">
       <c r="A17" s="65" t="s">
         <v>93</v>
       </c>
@@ -33982,7 +33987,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="26.65" thickBot="1">
+    <row r="18" spans="1:7" ht="26.5" thickBot="1">
       <c r="A18" s="64" t="s">
         <v>81</v>
       </c>
@@ -34001,7 +34006,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="39.75" thickBot="1">
+    <row r="19" spans="1:7" ht="39.5" thickBot="1">
       <c r="A19" s="64" t="s">
         <v>81</v>
       </c>
@@ -34020,7 +34025,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="26.65" thickBot="1">
+    <row r="20" spans="1:7" ht="26.5" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>118</v>
       </c>
@@ -34039,7 +34044,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="67" t="s">
         <v>736</v>
       </c>
@@ -34059,10 +34064,10 @@
       <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="226" t="s">
         <v>484</v>
       </c>
-      <c r="B22" s="225"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
@@ -34079,7 +34084,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="62" t="s">
         <v>76</v>
       </c>
@@ -34098,7 +34103,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="26.5" thickBot="1">
       <c r="A24" s="63" t="s">
         <v>79</v>
       </c>
@@ -34117,7 +34122,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="26.65" thickBot="1">
+    <row r="25" spans="1:7" ht="26.5" thickBot="1">
       <c r="A25" s="65" t="s">
         <v>93</v>
       </c>
@@ -34136,7 +34141,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="26.65" thickBot="1">
+    <row r="26" spans="1:7" ht="26.5" thickBot="1">
       <c r="A26" s="64" t="s">
         <v>81</v>
       </c>
@@ -34155,7 +34160,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="26.65" thickBot="1">
+    <row r="27" spans="1:7" ht="26.5" thickBot="1">
       <c r="A27" s="64" t="s">
         <v>81</v>
       </c>
@@ -34174,7 +34179,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="26.65" thickBot="1">
+    <row r="28" spans="1:7" ht="26.5" thickBot="1">
       <c r="A28" s="64" t="s">
         <v>81</v>
       </c>
@@ -34193,7 +34198,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="66" t="s">
         <v>118</v>
       </c>
@@ -34212,7 +34217,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="66" t="s">
         <v>118</v>
       </c>
@@ -34231,7 +34236,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="26.65" thickBot="1">
+    <row r="31" spans="1:7" ht="26.5" thickBot="1">
       <c r="A31" s="67" t="s">
         <v>736</v>
       </c>
@@ -34251,10 +34256,10 @@
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="226" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="225"/>
+      <c r="B32" s="227"/>
       <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
@@ -34271,7 +34276,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66" thickBot="1">
+    <row r="33" spans="1:7" ht="65.5" thickBot="1">
       <c r="A33" s="62" t="s">
         <v>76</v>
       </c>
@@ -34290,7 +34295,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="62" t="s">
         <v>76</v>
       </c>
@@ -34309,7 +34314,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>76</v>
       </c>
@@ -34328,7 +34333,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="52.9" thickBot="1">
+    <row r="36" spans="1:7" ht="52.5" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>79</v>
       </c>
@@ -34347,7 +34352,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="52.9" thickBot="1">
+    <row r="37" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -34366,7 +34371,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" s="24" customFormat="1" ht="39.75" thickBot="1">
+    <row r="38" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A38" s="64" t="s">
         <v>81</v>
       </c>
@@ -34385,7 +34390,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="39" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A39" s="64" t="s">
         <v>81</v>
       </c>
@@ -34404,7 +34409,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A40" s="66" t="s">
         <v>118</v>
       </c>
@@ -34423,7 +34428,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="41" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A41" s="66" t="s">
         <v>118</v>
       </c>
@@ -34442,7 +34447,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A42" s="67" t="s">
         <v>736</v>
       </c>
@@ -34462,10 +34467,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="224" t="s">
+      <c r="A43" s="226" t="s">
         <v>609</v>
       </c>
-      <c r="B43" s="225"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>
@@ -34482,7 +34487,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="39.75" thickBot="1">
+    <row r="44" spans="1:7" ht="39.5" thickBot="1">
       <c r="A44" s="62" t="s">
         <v>76</v>
       </c>
@@ -34501,7 +34506,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -34520,7 +34525,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="26.65" thickBot="1">
+    <row r="46" spans="1:7" ht="26.5" thickBot="1">
       <c r="A46" s="63" t="s">
         <v>79</v>
       </c>
@@ -34539,7 +34544,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="39.75" thickBot="1">
+    <row r="47" spans="1:7" ht="39.5" thickBot="1">
       <c r="A47" s="65" t="s">
         <v>93</v>
       </c>
@@ -34577,7 +34582,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="26.65" thickBot="1">
+    <row r="49" spans="1:7" ht="26.5" thickBot="1">
       <c r="A49" s="66" t="s">
         <v>118</v>
       </c>
@@ -34596,7 +34601,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="50" spans="1:7" ht="16" thickBot="1">
       <c r="A50" s="66" t="s">
         <v>118</v>
       </c>
@@ -34615,7 +34620,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="67" t="s">
         <v>736</v>
       </c>
@@ -34634,7 +34639,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>
@@ -34966,19 +34971,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -35011,10 +35016,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35035,8 +35040,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35057,8 +35062,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35079,8 +35084,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35101,8 +35106,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35123,8 +35128,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35139,12 +35144,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -35159,10 +35164,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Partial"))</f>
         <v>0</v>
@@ -35177,10 +35182,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -35197,7 +35202,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -35216,7 +35221,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="87" t="s">
         <v>79</v>
       </c>
@@ -35235,7 +35240,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="88" t="s">
         <v>93</v>
       </c>
@@ -35254,7 +35259,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="26.65" thickBot="1">
+    <row r="14" spans="1:7" ht="26.5" thickBot="1">
       <c r="A14" s="89" t="s">
         <v>81</v>
       </c>
@@ -35273,7 +35278,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="90" t="s">
         <v>118</v>
       </c>
@@ -35292,7 +35297,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>736</v>
       </c>
@@ -35312,10 +35317,10 @@
       <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A17" s="224" t="s">
+      <c r="A17" s="226" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="225"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
@@ -35332,7 +35337,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="86" t="s">
         <v>76</v>
       </c>
@@ -35351,7 +35356,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="87" t="s">
         <v>79</v>
       </c>
@@ -35370,7 +35375,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>81</v>
       </c>
@@ -35389,7 +35394,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="90" t="s">
         <v>118</v>
       </c>
@@ -35408,7 +35413,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:7" ht="16" thickBot="1">
       <c r="A22" s="91" t="s">
         <v>736</v>
       </c>
@@ -35428,10 +35433,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="224" t="s">
+      <c r="A23" s="226" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="225"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="8" t="s">
         <v>685</v>
       </c>
@@ -35448,7 +35453,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="86" t="s">
         <v>76</v>
       </c>
@@ -35467,7 +35472,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="87" t="s">
         <v>79</v>
       </c>
@@ -35486,7 +35491,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="89" t="s">
         <v>81</v>
       </c>
@@ -35505,7 +35510,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="90" t="s">
         <v>118</v>
       </c>
@@ -35524,7 +35529,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="91" t="s">
         <v>736</v>
       </c>
@@ -35543,7 +35548,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="29" spans="1:7" ht="16" thickBot="1">
       <c r="A29" s="91" t="s">
         <v>736</v>
       </c>
@@ -35563,10 +35568,10 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="226" t="s">
         <v>392</v>
       </c>
-      <c r="B30" s="225"/>
+      <c r="B30" s="227"/>
       <c r="C30" s="8" t="s">
         <v>683</v>
       </c>
@@ -35583,7 +35588,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="86" t="s">
         <v>76</v>
       </c>
@@ -35602,7 +35607,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="26.5" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -35621,7 +35626,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="33" spans="1:7" ht="16" thickBot="1">
       <c r="A33" s="89" t="s">
         <v>81</v>
       </c>
@@ -35640,7 +35645,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="90" t="s">
         <v>118</v>
       </c>
@@ -35659,7 +35664,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="16" thickBot="1">
       <c r="A35" s="91" t="s">
         <v>736</v>
       </c>
@@ -35678,7 +35683,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="36" spans="1:7" ht="16" thickBot="1">
       <c r="A36" s="91" t="s">
         <v>736</v>
       </c>
@@ -35697,7 +35702,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="91" t="s">
         <v>736</v>
       </c>
@@ -35717,10 +35722,10 @@
       <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A38" s="224" t="s">
+      <c r="A38" s="226" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="225"/>
+      <c r="B38" s="227"/>
       <c r="C38" s="8" t="s">
         <v>684</v>
       </c>
@@ -35737,7 +35742,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="39" spans="1:7" ht="16" customHeight="1" thickBot="1">
       <c r="A39" s="86" t="s">
         <v>76</v>
       </c>
@@ -35756,7 +35761,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="16" thickBot="1">
       <c r="A40" s="87" t="s">
         <v>79</v>
       </c>
@@ -35775,7 +35780,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="16" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>81</v>
       </c>
@@ -35794,7 +35799,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="16" thickBot="1">
       <c r="A42" s="90" t="s">
         <v>118</v>
       </c>
@@ -35813,7 +35818,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="43" spans="1:7" ht="16" thickBot="1">
       <c r="A43" s="90" t="s">
         <v>118</v>
       </c>
@@ -35832,7 +35837,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="44" spans="1:7" ht="16" thickBot="1">
       <c r="A44" s="91" t="s">
         <v>736</v>
       </c>
@@ -35852,10 +35857,10 @@
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A45" s="224" t="s">
+      <c r="A45" s="226" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="225"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="8" t="s">
         <v>73</v>
       </c>
@@ -35891,7 +35896,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="47" spans="1:7" ht="16" thickBot="1">
       <c r="A47" s="87" t="s">
         <v>79</v>
       </c>
@@ -35910,7 +35915,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" ht="16" thickBot="1">
       <c r="A48" s="89" t="s">
         <v>81</v>
       </c>
@@ -35929,7 +35934,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="49" spans="1:7" ht="16" thickBot="1">
       <c r="A49" s="89" t="s">
         <v>81</v>
       </c>
@@ -35948,7 +35953,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="50" spans="1:7" ht="16" thickBot="1">
       <c r="A50" s="89" t="s">
         <v>81</v>
       </c>
@@ -35986,7 +35991,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="52" spans="1:7" ht="16" thickBot="1">
       <c r="A52" s="90" t="s">
         <v>118</v>
       </c>
@@ -36005,7 +36010,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="16" thickBot="1">
       <c r="A53" s="90" t="s">
         <v>118</v>
       </c>
@@ -36024,7 +36029,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="54" spans="1:7" ht="16" thickBot="1">
       <c r="A54" s="91" t="s">
         <v>736</v>
       </c>
@@ -36043,7 +36048,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="55" spans="1:7" ht="16" thickBot="1">
       <c r="A55" s="91" t="s">
         <v>736</v>
       </c>
@@ -36062,7 +36067,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="56" spans="1:7" ht="16" thickBot="1">
       <c r="A56" s="91" t="s">
         <v>736</v>
       </c>
@@ -36082,74 +36087,74 @@
       <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="65" s="24" customFormat="1" ht="15.75"/>
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="65" s="24" customFormat="1" ht="15.5"/>
     <row r="66" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="67" s="24" customFormat="1" ht="15.75"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
+    <row r="67" s="24" customFormat="1" ht="15.5"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
     <row r="72" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
-    <row r="74" s="24" customFormat="1" ht="15.75"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
-    <row r="81" s="24" customFormat="1" ht="15.75"/>
-    <row r="82" s="24" customFormat="1" ht="15.75"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
-    <row r="86" s="24" customFormat="1" ht="15.75"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
+    <row r="74" s="24" customFormat="1" ht="15.5"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
+    <row r="81" s="24" customFormat="1" ht="15.5"/>
+    <row r="82" s="24" customFormat="1" ht="15.5"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
+    <row r="86" s="24" customFormat="1" ht="15.5"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
     <row r="89" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="90" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" s="24" customFormat="1" ht="15.75"/>
+    <row r="90" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" s="24" customFormat="1" ht="15.5"/>
     <row r="96" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
     <row r="103" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
-    <row r="105" s="24" customFormat="1" ht="15.75"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
+    <row r="105" s="24" customFormat="1" ht="15.5"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
     <row r="108" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
-    <row r="110" s="24" customFormat="1" ht="15.75"/>
-    <row r="111" s="24" customFormat="1" ht="15.75"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
+    <row r="110" s="24" customFormat="1" ht="15.5"/>
+    <row r="111" s="24" customFormat="1" ht="15.5"/>
     <row r="112" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="113" s="24" customFormat="1" ht="15.75"/>
-    <row r="114" s="24" customFormat="1" ht="15.75"/>
-    <row r="115" s="24" customFormat="1" ht="15.75"/>
-    <row r="116" s="24" customFormat="1" ht="15.75"/>
+    <row r="113" s="24" customFormat="1" ht="15.5"/>
+    <row r="114" s="24" customFormat="1" ht="15.5"/>
+    <row r="115" s="24" customFormat="1" ht="15.5"/>
+    <row r="116" s="24" customFormat="1" ht="15.5"/>
     <row r="117" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="118" s="24" customFormat="1" ht="15.75"/>
-    <row r="119" s="24" customFormat="1" ht="15.75"/>
-    <row r="120" s="24" customFormat="1" ht="15.75"/>
-    <row r="121" s="24" customFormat="1" ht="15.75"/>
-    <row r="122" s="24" customFormat="1" ht="15.75"/>
-    <row r="123" s="24" customFormat="1" ht="15.75"/>
-    <row r="124" s="24" customFormat="1" ht="15.75"/>
-    <row r="125" s="24" customFormat="1" ht="15.75"/>
+    <row r="118" s="24" customFormat="1" ht="15.5"/>
+    <row r="119" s="24" customFormat="1" ht="15.5"/>
+    <row r="120" s="24" customFormat="1" ht="15.5"/>
+    <row r="121" s="24" customFormat="1" ht="15.5"/>
+    <row r="122" s="24" customFormat="1" ht="15.5"/>
+    <row r="123" s="24" customFormat="1" ht="15.5"/>
+    <row r="124" s="24" customFormat="1" ht="15.5"/>
+    <row r="125" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:B9"/>
@@ -36860,15 +36865,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -36901,10 +36906,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>847</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36925,8 +36930,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36947,8 +36952,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36969,8 +36974,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -36991,8 +36996,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -37013,8 +37018,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -37029,12 +37034,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -37049,10 +37054,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Partial"))</f>
         <v>0</v>
@@ -37067,10 +37072,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>445</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -37087,7 +37092,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -37106,7 +37111,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="86" t="s">
         <v>76</v>
       </c>
@@ -37125,7 +37130,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="26.65" thickBot="1">
+    <row r="13" spans="1:7" ht="26.5" thickBot="1">
       <c r="A13" s="86" t="s">
         <v>76</v>
       </c>
@@ -37144,7 +37149,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>79</v>
       </c>
@@ -37163,7 +37168,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="87" t="s">
         <v>79</v>
       </c>
@@ -37182,7 +37187,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="87" t="s">
         <v>79</v>
       </c>
@@ -37220,7 +37225,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="88" t="s">
         <v>93</v>
       </c>
@@ -37239,7 +37244,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="88" t="s">
         <v>93</v>
       </c>
@@ -37258,7 +37263,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>81</v>
       </c>
@@ -37277,7 +37282,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="89" t="s">
         <v>81</v>
       </c>
@@ -37296,7 +37301,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:7" ht="16" thickBot="1">
       <c r="A22" s="90" t="s">
         <v>118</v>
       </c>
@@ -37315,7 +37320,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="90" t="s">
         <v>118</v>
       </c>
@@ -37334,7 +37339,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="91" t="s">
         <v>736</v>
       </c>
@@ -37353,7 +37358,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="91" t="s">
         <v>736</v>
       </c>
@@ -37372,7 +37377,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="91" t="s">
         <v>736</v>
       </c>
@@ -37391,7 +37396,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="91" t="s">
         <v>736</v>
       </c>
@@ -37410,7 +37415,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="91" t="s">
         <v>736</v>
       </c>
@@ -37430,10 +37435,10 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="226" t="s">
         <v>859</v>
       </c>
-      <c r="B29" s="225"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="8" t="s">
         <v>680</v>
       </c>
@@ -37450,7 +37455,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="86" t="s">
         <v>76</v>
       </c>
@@ -37469,7 +37474,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>79</v>
       </c>
@@ -37488,7 +37493,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="26.65" thickBot="1">
+    <row r="32" spans="1:7" ht="26.5" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -37507,7 +37512,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="26.65" thickBot="1">
+    <row r="33" spans="1:7" ht="26.5" thickBot="1">
       <c r="A33" s="88" t="s">
         <v>93</v>
       </c>
@@ -37526,7 +37531,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="89" t="s">
         <v>81</v>
       </c>
@@ -37545,7 +37550,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="89" t="s">
         <v>81</v>
       </c>
@@ -37564,7 +37569,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="26.65" thickBot="1">
+    <row r="36" spans="1:7" ht="26.5" thickBot="1">
       <c r="A36" s="90" t="s">
         <v>118</v>
       </c>
@@ -37583,7 +37588,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="90" t="s">
         <v>118</v>
       </c>
@@ -37602,7 +37607,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="26.65" thickBot="1">
+    <row r="38" spans="1:7" ht="26.5" thickBot="1">
       <c r="A38" s="90" t="s">
         <v>118</v>
       </c>
@@ -37621,7 +37626,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="39" spans="1:7" ht="16" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>736</v>
       </c>
@@ -37640,7 +37645,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="16" thickBot="1">
       <c r="A40" s="91" t="s">
         <v>736</v>
       </c>
@@ -37660,10 +37665,10 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A41" s="224" t="s">
+      <c r="A41" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="225"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="8" t="s">
         <v>73</v>
       </c>
@@ -37680,7 +37685,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A42" s="86" t="s">
         <v>76</v>
       </c>
@@ -37699,7 +37704,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" s="24" customFormat="1" ht="39.75" thickBot="1">
+    <row r="43" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A43" s="87" t="s">
         <v>79</v>
       </c>
@@ -37718,7 +37723,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="44" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A44" s="88" t="s">
         <v>93</v>
       </c>
@@ -37756,7 +37761,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A46" s="89" t="s">
         <v>81</v>
       </c>
@@ -37775,7 +37780,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="47" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A47" s="89" t="s">
         <v>81</v>
       </c>
@@ -37794,7 +37799,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A48" s="90" t="s">
         <v>118</v>
       </c>
@@ -37813,7 +37818,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="49" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A49" s="90" t="s">
         <v>118</v>
       </c>
@@ -37833,10 +37838,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="224" t="s">
+      <c r="A50" s="226" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="225"/>
+      <c r="B50" s="227"/>
       <c r="C50" s="68" t="s">
         <v>681</v>
       </c>
@@ -37853,7 +37858,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A51" s="86" t="s">
         <v>76</v>
       </c>
@@ -37872,7 +37877,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" s="24" customFormat="1" ht="52.9" thickBot="1">
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
       <c r="A52" s="87" t="s">
         <v>79</v>
       </c>
@@ -37891,7 +37896,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="53" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A53" s="88" t="s">
         <v>93</v>
       </c>
@@ -37910,7 +37915,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="54" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A54" s="88" t="s">
         <v>93</v>
       </c>
@@ -37929,7 +37934,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A55" s="89" t="s">
         <v>81</v>
       </c>
@@ -37948,7 +37953,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A56" s="89" t="s">
         <v>81</v>
       </c>
@@ -37967,7 +37972,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A57" s="89" t="s">
         <v>81</v>
       </c>
@@ -37986,7 +37991,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A58" s="90" t="s">
         <v>118</v>
       </c>
@@ -38005,7 +38010,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A59" s="90" t="s">
         <v>118</v>
       </c>
@@ -38024,50 +38029,50 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="65" s="24" customFormat="1" ht="15.75"/>
-    <row r="66" s="24" customFormat="1" ht="15.75"/>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="65" s="24" customFormat="1" ht="15.5"/>
+    <row r="66" s="24" customFormat="1" ht="15.5"/>
     <row r="67" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
-    <row r="72" s="24" customFormat="1" ht="15.75"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
+    <row r="72" s="24" customFormat="1" ht="15.5"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
     <row r="74" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
     <row r="81" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="82" s="24" customFormat="1" ht="15.75"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
+    <row r="82" s="24" customFormat="1" ht="15.5"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
     <row r="86" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
-    <row r="89" s="24" customFormat="1" ht="15.75"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
+    <row r="89" s="24" customFormat="1" ht="15.5"/>
     <row r="90" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
     <row r="95" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="96" s="24" customFormat="1" ht="15.75"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
+    <row r="96" s="24" customFormat="1" ht="15.5"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>
@@ -38590,19 +38595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="33"/>
+    <col min="8" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -38635,10 +38640,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="232" t="s">
         <v>558</v>
       </c>
-      <c r="D2" s="231"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38659,8 +38664,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38681,8 +38686,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38703,8 +38708,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38725,8 +38730,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38747,8 +38752,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38763,12 +38768,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="228" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38783,10 +38788,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -38801,10 +38806,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="226" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="68" t="s">
         <v>674</v>
       </c>
@@ -38821,7 +38826,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -38840,7 +38845,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -38859,7 +38864,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>79</v>
       </c>
@@ -38878,7 +38883,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="63" t="s">
         <v>79</v>
       </c>
@@ -38897,7 +38902,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="65" t="s">
         <v>93</v>
       </c>
@@ -38916,7 +38921,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="65" t="s">
         <v>93</v>
       </c>
@@ -38935,7 +38940,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="26.65" thickBot="1">
+    <row r="17" spans="1:7" ht="26.5" thickBot="1">
       <c r="A17" s="64" t="s">
         <v>81</v>
       </c>
@@ -38954,7 +38959,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="26.65" thickBot="1">
+    <row r="18" spans="1:7" ht="26.5" thickBot="1">
       <c r="A18" s="64" t="s">
         <v>81</v>
       </c>
@@ -38973,7 +38978,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="66" t="s">
         <v>118</v>
       </c>
@@ -38992,7 +38997,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="26.65" thickBot="1">
+    <row r="20" spans="1:7" ht="26.5" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>118</v>
       </c>
@@ -39011,7 +39016,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="66" t="s">
         <v>118</v>
       </c>
@@ -39030,7 +39035,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="26.65" thickBot="1">
+    <row r="22" spans="1:7" ht="26.5" thickBot="1">
       <c r="A22" s="67" t="s">
         <v>736</v>
       </c>
@@ -39049,7 +39054,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="67" t="s">
         <v>736</v>
       </c>
@@ -39069,10 +39074,10 @@
       <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A24" s="224" t="s">
+      <c r="A24" s="226" t="s">
         <v>582</v>
       </c>
-      <c r="B24" s="225"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="8" t="s">
         <v>73</v>
       </c>
@@ -39089,7 +39094,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
@@ -39108,7 +39113,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="26.65" thickBot="1">
+    <row r="26" spans="1:7" ht="26.5" thickBot="1">
       <c r="A26" s="62" t="s">
         <v>76</v>
       </c>
@@ -39127,7 +39132,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -39146,7 +39151,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="63" t="s">
         <v>79</v>
       </c>
@@ -39165,7 +39170,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="26.65" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="65" t="s">
         <v>93</v>
       </c>
@@ -39184,7 +39189,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="16" thickBot="1">
       <c r="A30" s="65" t="s">
         <v>93</v>
       </c>
@@ -39203,7 +39208,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="64" t="s">
         <v>81</v>
       </c>
@@ -39222,7 +39227,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="16" thickBot="1">
       <c r="A32" s="64" t="s">
         <v>81</v>
       </c>
@@ -39241,7 +39246,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="26.65" thickBot="1">
+    <row r="33" spans="1:7" ht="26.5" thickBot="1">
       <c r="A33" s="66" t="s">
         <v>118</v>
       </c>
@@ -39260,7 +39265,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="26.65" thickBot="1">
+    <row r="34" spans="1:7" ht="26.5" thickBot="1">
       <c r="A34" s="66" t="s">
         <v>118</v>
       </c>
@@ -39279,7 +39284,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="67" t="s">
         <v>736</v>
       </c>
@@ -39299,10 +39304,10 @@
       <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="226" t="s">
         <v>670</v>
       </c>
-      <c r="B36" s="225"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="8" t="s">
         <v>675</v>
       </c>
@@ -39319,7 +39324,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="62" t="s">
         <v>76</v>
       </c>
@@ -39338,7 +39343,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="38" spans="1:7" ht="16" thickBot="1">
       <c r="A38" s="62" t="s">
         <v>76</v>
       </c>
@@ -39357,7 +39362,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="26.65" thickBot="1">
+    <row r="39" spans="1:7" ht="26.5" thickBot="1">
       <c r="A39" s="63" t="s">
         <v>79</v>
       </c>
@@ -39376,7 +39381,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" ht="26.5" thickBot="1">
       <c r="A40" s="64" t="s">
         <v>81</v>
       </c>
@@ -39395,7 +39400,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="39.75" thickBot="1">
+    <row r="41" spans="1:7" ht="39.5" thickBot="1">
       <c r="A41" s="66" t="s">
         <v>118</v>
       </c>
@@ -39414,7 +39419,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="16" thickBot="1">
       <c r="A42" s="67" t="s">
         <v>736</v>
       </c>
@@ -39434,10 +39439,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="224" t="s">
+      <c r="A43" s="226" t="s">
         <v>626</v>
       </c>
-      <c r="B43" s="225"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>
@@ -39454,7 +39459,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="26.65" thickBot="1">
+    <row r="44" spans="1:7" ht="26.5" thickBot="1">
       <c r="A44" s="62" t="s">
         <v>76</v>
       </c>
@@ -39473,7 +39478,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="39.75" thickBot="1">
+    <row r="45" spans="1:7" ht="39.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -39492,7 +39497,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="16" thickBot="1">
       <c r="A46" s="65" t="s">
         <v>93</v>
       </c>
@@ -39511,7 +39516,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="64" t="s">
         <v>81</v>
       </c>
@@ -39530,77 +39535,77 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="49" s="24" customFormat="1" ht="15.75"/>
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="49" s="24" customFormat="1" ht="15.5"/>
     <row r="50" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="51" s="24" customFormat="1" ht="15.75"/>
-    <row r="52" s="24" customFormat="1" ht="15.75"/>
-    <row r="53" s="24" customFormat="1" ht="15.75"/>
-    <row r="54" s="24" customFormat="1" ht="15.75"/>
-    <row r="55" s="24" customFormat="1" ht="15.75"/>
-    <row r="56" s="24" customFormat="1" ht="15.75"/>
-    <row r="57" s="24" customFormat="1" ht="15.75"/>
-    <row r="58" s="24" customFormat="1" ht="15.75"/>
+    <row r="51" s="24" customFormat="1" ht="15.5"/>
+    <row r="52" s="24" customFormat="1" ht="15.5"/>
+    <row r="53" s="24" customFormat="1" ht="15.5"/>
+    <row r="54" s="24" customFormat="1" ht="15.5"/>
+    <row r="55" s="24" customFormat="1" ht="15.5"/>
+    <row r="56" s="24" customFormat="1" ht="15.5"/>
+    <row r="57" s="24" customFormat="1" ht="15.5"/>
+    <row r="58" s="24" customFormat="1" ht="15.5"/>
     <row r="59" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="60" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" s="24" customFormat="1" ht="15.75"/>
+    <row r="60" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" s="24" customFormat="1" ht="15.5"/>
     <row r="65" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="66" s="24" customFormat="1" ht="15.75"/>
-    <row r="67" s="24" customFormat="1" ht="15.75"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
-    <row r="72" s="24" customFormat="1" ht="15.75"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
-    <row r="74" s="24" customFormat="1" ht="15.75"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
-    <row r="81" s="24" customFormat="1" ht="15.75"/>
+    <row r="66" s="24" customFormat="1" ht="15.5"/>
+    <row r="67" s="24" customFormat="1" ht="15.5"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
+    <row r="72" s="24" customFormat="1" ht="15.5"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
+    <row r="74" s="24" customFormat="1" ht="15.5"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
+    <row r="81" s="24" customFormat="1" ht="15.5"/>
     <row r="82" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
-    <row r="86" s="24" customFormat="1" ht="15.75"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
+    <row r="86" s="24" customFormat="1" ht="15.5"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
     <row r="89" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="90" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" s="24" customFormat="1" ht="15.75"/>
+    <row r="90" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" s="24" customFormat="1" ht="15.5"/>
     <row r="96" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
     <row r="101" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
     <row r="105" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
-    <row r="108" s="24" customFormat="1" ht="15.75"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
+    <row r="108" s="24" customFormat="1" ht="15.5"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
     <row r="110" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="111" s="24" customFormat="1" ht="15.75"/>
-    <row r="112" s="24" customFormat="1" ht="15.75"/>
-    <row r="113" s="24" customFormat="1" ht="15.75"/>
-    <row r="114" s="24" customFormat="1" ht="15.75"/>
-    <row r="115" s="24" customFormat="1" ht="15.75"/>
-    <row r="116" s="24" customFormat="1" ht="15.75"/>
-    <row r="117" s="24" customFormat="1" ht="15.75"/>
-    <row r="118" s="24" customFormat="1" ht="15.75"/>
+    <row r="111" s="24" customFormat="1" ht="15.5"/>
+    <row r="112" s="24" customFormat="1" ht="15.5"/>
+    <row r="113" s="24" customFormat="1" ht="15.5"/>
+    <row r="114" s="24" customFormat="1" ht="15.5"/>
+    <row r="115" s="24" customFormat="1" ht="15.5"/>
+    <row r="116" s="24" customFormat="1" ht="15.5"/>
+    <row r="117" s="24" customFormat="1" ht="15.5"/>
+    <row r="118" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="903">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3405,30 +3405,6 @@
   </si>
   <si>
     <t>I spend most of my time developing the game on a Surface Pro 3, which has an Intel HD5000 GPU. The game runs flawlessly on this machine. 60FPS most of the time.</t>
-  </si>
-  <si>
-    <t>%APPDATA%\DigiPen\... Is fine, I assume?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">git clean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and done</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5225,19 +5201,31 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5249,22 +5237,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5294,76 +5303,82 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5384,45 +5399,6 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5432,6 +5408,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5439,42 +5442,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5513,32 +5480,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24065,54 +24041,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="138" t="s">
-        <v>897</v>
-      </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="A2" s="149" t="s">
+        <v>895</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="138" t="s">
-        <v>898</v>
-      </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="F2" s="149" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24133,41 +24109,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="143" t="s">
+        <v>897</v>
+      </c>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="143" t="s">
         <v>899</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="147" t="s">
-        <v>901</v>
-      </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="140" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24178,49 +24154,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="147" t="s">
-        <v>902</v>
-      </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="F7" s="143" t="s">
+        <v>900</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="147" t="s">
-        <v>900</v>
-      </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="A9" s="143" t="s">
+        <v>898</v>
+      </c>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="146"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24239,18 +24215,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24290,7 +24266,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="140" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24321,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="145"/>
+      <c r="L13" s="141"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24349,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="146"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24405,11 +24381,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24427,17 +24403,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="140" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24451,17 +24427,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="146"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24505,23 +24481,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="162" t="s">
         <v>846</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="160">
         <f>'Project Grade'!$G$3</f>
         <v>0.79</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="156"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="133">
+      <c r="J22" s="164">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="121" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24532,15 +24508,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="122"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="134"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="151"/>
+      <c r="L23" s="122"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24564,13 +24540,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="134" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24581,11 +24557,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24611,13 +24587,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24628,13 +24604,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="156" t="s">
+      <c r="F29" s="127" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24645,28 +24621,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24687,39 +24663,46 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="155" t="s">
         <v>858</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24733,19 +24716,12 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24810,53 +24786,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="181" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="182"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="171" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="171" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="182"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="182"/>
+      <c r="H2" s="174"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="183">
+      <c r="D3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
         <v>0.78</v>
       </c>
-      <c r="E3" s="184"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="183">
+      <c r="G3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.79</v>
       </c>
-      <c r="H3" s="184"/>
+      <c r="H3" s="176"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
         <v>2.375E-2</v>
@@ -24874,30 +24850,30 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="183" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="148"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="172">
+      <c r="A6" s="185">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
@@ -24919,15 +24895,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="175"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="175"/>
+      <c r="H7" s="177"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24951,7 +24927,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="178" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24981,7 +24957,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="177"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -25009,7 +24985,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="178"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25095,7 +25071,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="168" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25125,7 +25101,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="185"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25146,22 +25122,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="185"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="174"/>
+      <c r="E16" s="170"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="174" t="s">
+      <c r="G16" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="J16" s="185"/>
+      <c r="H16" s="170"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25184,7 +25160,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="185"/>
+      <c r="J17" s="168"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25212,7 +25188,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="186"/>
+      <c r="J18" s="169"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25388,15 +25364,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="170"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="174" t="s">
+      <c r="G25" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="174"/>
+      <c r="H25" s="170"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25615,15 +25591,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="174"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="174"/>
+      <c r="H34" s="170"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25833,15 +25809,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="174"/>
+      <c r="E43" s="170"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="174" t="s">
+      <c r="G43" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="174"/>
+      <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26051,15 +26027,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="174"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="174"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26267,6 +26243,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J13:J18"/>
@@ -26275,25 +26270,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26325,14 +26301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26345,14 +26321,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="214" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26365,14 +26341,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="217" t="s">
         <v>879</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="219"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26401,10 +26377,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26420,10 +26396,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="201"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26439,10 +26415,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="202"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26458,10 +26434,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26477,10 +26453,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="202"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26496,10 +26472,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="201"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26515,10 +26491,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26534,10 +26510,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26554,11 +26530,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26577,13 +26553,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="192"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26622,246 +26598,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="202" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="205" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="206"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="206"/>
-      <c r="B24" s="214" t="s">
+      <c r="A24" s="203"/>
+      <c r="B24" s="211" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="206"/>
-      <c r="B25" s="217" t="s">
+      <c r="A25" s="203"/>
+      <c r="B25" s="193" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="219"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="206"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
+      <c r="A26" s="203"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="217" t="s">
+      <c r="A27" s="203"/>
+      <c r="B27" s="193" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="206"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="206"/>
-      <c r="B29" s="217" t="s">
+      <c r="A29" s="203"/>
+      <c r="B29" s="193" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="219"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="206"/>
-      <c r="B30" s="217" t="s">
+      <c r="A30" s="203"/>
+      <c r="B30" s="193" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="219"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="206"/>
-      <c r="B31" s="217" t="s">
+      <c r="A31" s="203"/>
+      <c r="B31" s="193" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="206"/>
-      <c r="B32" s="217" t="s">
+      <c r="A32" s="203"/>
+      <c r="B32" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="219"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="195"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="206"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="203"/>
+      <c r="B33" s="193" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="195"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="206"/>
-      <c r="B34" s="217" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="193" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="219"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="206"/>
-      <c r="B35" s="217" t="s">
+      <c r="A35" s="203"/>
+      <c r="B35" s="193" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="219"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="220" t="s">
+      <c r="A36" s="204"/>
+      <c r="B36" s="196" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="198"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="223" t="s">
+      <c r="B37" s="190" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="190" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="225"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="192"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="190" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="225"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="192"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="190" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="225"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="192"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="223" t="s">
+      <c r="B41" s="190" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="192"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="190" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="225"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="192"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="223" t="s">
+      <c r="B43" s="190" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="225"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="223" t="s">
+      <c r="B44" s="190" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="192"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26877,17 +26853,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A22:A36"/>
@@ -26904,22 +26885,17 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26935,8 +26911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="145" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -28006,7 +27982,7 @@
         <v>125</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>68</v>
@@ -28705,9 +28681,7 @@
       <c r="C90" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="55" t="s">
-        <v>893</v>
-      </c>
+      <c r="D90" s="55"/>
       <c r="E90" s="8" t="s">
         <v>68</v>
       </c>
@@ -28745,9 +28719,7 @@
       <c r="C92" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="120" t="s">
-        <v>894</v>
-      </c>
+      <c r="D92" s="120"/>
       <c r="E92" s="8" t="s">
         <v>68</v>
       </c>
@@ -28786,7 +28758,7 @@
         <v>655</v>
       </c>
       <c r="D94" s="120" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>68</v>
@@ -28885,7 +28857,7 @@
         <v>849</v>
       </c>
       <c r="D99" s="120" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>68</v>
@@ -29197,7 +29169,7 @@
         <v>832</v>
       </c>
       <c r="D115" s="120" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>66</v>
@@ -29401,6 +29373,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29410,13 +29389,6 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -32348,7 +32320,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" ht="39.5" thickBot="1">
+    <row r="63" spans="1:7" ht="26.5" thickBot="1">
       <c r="A63" s="118" t="s">
         <v>81</v>
       </c>
@@ -34352,7 +34324,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
+    <row r="37" spans="1:7" s="24" customFormat="1" ht="52.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -34390,7 +34362,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
+    <row r="39" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A39" s="64" t="s">
         <v>81</v>
       </c>
@@ -37934,7 +37906,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A55" s="89" t="s">
         <v>81</v>
       </c>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -5201,31 +5201,19 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5237,43 +5225,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5303,37 +5270,70 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5342,13 +5342,37 @@
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5369,35 +5393,11 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5408,33 +5408,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5442,6 +5415,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5480,41 +5489,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24041,54 +24041,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="148"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="138" t="s">
         <v>895</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="138" t="s">
         <v>896</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24109,41 +24109,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="147" t="s">
         <v>897</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="147" t="s">
         <v>899</v>
       </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="144" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24154,49 +24154,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="147" t="s">
         <v>900</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="141"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="141"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="147" t="s">
         <v>898</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="142"/>
+      <c r="L9" s="146"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24215,18 +24215,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="140" t="s">
+      <c r="L12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24297,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="141"/>
+      <c r="L13" s="145"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24325,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="142"/>
+      <c r="L14" s="146"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24381,11 +24381,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24403,17 +24403,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="157" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="144" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24427,17 +24427,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="142"/>
+      <c r="L19" s="146"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24481,23 +24481,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="131" t="s">
         <v>846</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="129">
         <f>'Project Grade'!$G$3</f>
-        <v>0.79</v>
-      </c>
-      <c r="H22" s="156"/>
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="122"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="164">
+      <c r="J22" s="133">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="121" t="s">
+      <c r="L22" s="150" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24508,15 +24508,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="156"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="165"/>
+      <c r="J23" s="134"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="122"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24540,13 +24540,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="134" t="s">
+      <c r="F25" s="160" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24557,11 +24557,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="139"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24587,13 +24587,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="133" t="s">
+      <c r="F28" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24604,13 +24604,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="156" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24621,28 +24621,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24663,46 +24663,39 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="121" t="s">
         <v>858</v>
       </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24716,12 +24709,19 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24786,56 +24786,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="168" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="172"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="179" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="172"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="174"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="174"/>
+      <c r="H2" s="182"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="175">
+      <c r="D3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
-        <v>0.78</v>
-      </c>
-      <c r="E3" s="176"/>
+        <v>0.77</v>
+      </c>
+      <c r="E3" s="184"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="175">
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
-        <v>0.79</v>
-      </c>
-      <c r="H3" s="176"/>
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="184"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>2.375E-2</v>
+        <v>2.8749999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24850,34 +24850,34 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="170" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="148"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="148"/>
+      <c r="H5" s="137"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="185">
+      <c r="A6" s="172">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000022E-3</v>
       </c>
       <c r="E6" s="167"/>
       <c r="F6" s="11"/>
@@ -24888,22 +24888,22 @@
       <c r="H6" s="167"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000022E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="177"/>
+      <c r="H7" s="175"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24927,7 +24927,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="176" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24957,7 +24957,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="179"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24985,7 +24985,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -24998,11 +24998,11 @@
       <c r="C11" s="95"/>
       <c r="D11" s="99">
         <f>TCRs!$E$4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="99">
@@ -25071,7 +25071,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="168" t="s">
+      <c r="J13" s="185" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25101,7 +25101,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="168"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="E15" s="101">
         <f>SUM(E9:E14)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000022E-3</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="73" t="s">
@@ -25122,22 +25122,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="168"/>
+      <c r="J15" s="185"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="170"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="170"/>
-      <c r="J16" s="168"/>
+      <c r="H16" s="174"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25160,7 +25160,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="168"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25188,7 +25188,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="169"/>
+      <c r="J18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25364,15 +25364,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="170"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="170"/>
+      <c r="H25" s="174"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25591,15 +25591,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="170"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="170"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25809,15 +25809,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="170" t="s">
+      <c r="D43" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="170"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="170"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26027,15 +26027,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="170" t="s">
+      <c r="D52" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="170"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="170" t="s">
+      <c r="G52" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="170"/>
+      <c r="H52" s="174"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26243,11 +26243,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
@@ -26256,20 +26265,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26301,14 +26301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26321,14 +26321,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="193" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26341,14 +26341,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="196" t="s">
         <v>879</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="219"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26377,10 +26377,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="215"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26396,10 +26396,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26415,10 +26415,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="223"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26434,10 +26434,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26453,10 +26453,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="223"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26472,10 +26472,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26491,10 +26491,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="222"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26510,10 +26510,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="225"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26530,11 +26530,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26553,13 +26553,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26598,246 +26598,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="205" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="208" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="203"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="213"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="203"/>
-      <c r="B24" s="211" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="214" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="213"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="203"/>
-      <c r="B25" s="193" t="s">
+      <c r="A25" s="206"/>
+      <c r="B25" s="217" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="219"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="203"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="203"/>
-      <c r="B27" s="193" t="s">
+      <c r="A27" s="206"/>
+      <c r="B27" s="217" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="203"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="203"/>
-      <c r="B29" s="193" t="s">
+      <c r="A29" s="206"/>
+      <c r="B29" s="217" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="219"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="203"/>
-      <c r="B30" s="193" t="s">
+      <c r="A30" s="206"/>
+      <c r="B30" s="217" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="219"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="203"/>
-      <c r="B31" s="193" t="s">
+      <c r="A31" s="206"/>
+      <c r="B31" s="217" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="219"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="203"/>
-      <c r="B32" s="193" t="s">
+      <c r="A32" s="206"/>
+      <c r="B32" s="217" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="203"/>
-      <c r="B33" s="193" t="s">
+      <c r="A33" s="206"/>
+      <c r="B33" s="217" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="203"/>
-      <c r="B34" s="193" t="s">
+      <c r="A34" s="206"/>
+      <c r="B34" s="217" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="203"/>
-      <c r="B35" s="193" t="s">
+      <c r="A35" s="206"/>
+      <c r="B35" s="217" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="204"/>
-      <c r="B36" s="196" t="s">
+      <c r="A36" s="207"/>
+      <c r="B36" s="220" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="198"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="223" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="225"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="223" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="192"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="223" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="192"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="223" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="192"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="225"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="223" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="192"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="190" t="s">
+      <c r="B42" s="223" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="192"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="225"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="223" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="223" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="192"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26853,6 +26853,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -26869,33 +26896,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26911,8 +26911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="145" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -27006,7 +27006,7 @@
       <c r="D4" s="235"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Partial"))</f>
@@ -27028,7 +27028,7 @@
       <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(F$10:F$249="Partial"))</f>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="78.5" thickBot="1">
+    <row r="21" spans="1:7" ht="65.5" thickBot="1">
       <c r="A21" s="65" t="s">
         <v>93</v>
       </c>
@@ -27448,7 +27448,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="78.5" thickBot="1">
+    <row r="27" spans="1:7" ht="65.5" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -28747,7 +28747,7 @@
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="1:7" ht="143.5" thickBot="1">
+    <row r="94" spans="1:7" ht="130.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -28799,7 +28799,7 @@
       </c>
       <c r="D96" s="55"/>
       <c r="E96" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>62</v>
@@ -29373,13 +29373,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29389,6 +29382,13 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -32320,7 +32320,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" ht="26.5" thickBot="1">
+    <row r="63" spans="1:7" ht="39.5" thickBot="1">
       <c r="A63" s="118" t="s">
         <v>81</v>
       </c>
@@ -34324,7 +34324,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="52.5" thickBot="1">
+    <row r="37" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -34362,7 +34362,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="39" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A39" s="64" t="s">
         <v>81</v>
       </c>
@@ -37906,7 +37906,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A55" s="89" t="s">
         <v>81</v>
       </c>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,12 @@
     <sheet name="ACRs" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="904">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3114,9 +3110,6 @@
     <t>Run on all test machines</t>
   </si>
   <si>
-    <t>The game runs well on the various test machines provided (assuming they are provided).</t>
-  </si>
-  <si>
     <t>Extended Windows OS Support</t>
   </si>
   <si>
@@ -3476,6 +3469,12 @@
   </si>
   <si>
     <t>Windows 8 touch screens (e.g. Surface Pro) are supported for all interaction in the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DIT2426US (machine in our team space), DX11 clean machine when booted into Windows 8.1 (Windows 7 on that machine does not have Service Pack 1, a requirement of our game. Game exits with simple message telling the user to install Service Pack 1 or better)</t>
   </si>
 </sst>
 </file>
@@ -24061,14 +24060,14 @@
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
       <c r="A2" s="138" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
       <c r="D2" s="140"/>
       <c r="E2" s="16"/>
       <c r="F2" s="138" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="139"/>
       <c r="H2" s="139"/>
@@ -24129,14 +24128,14 @@
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="147" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B6" s="148"/>
       <c r="C6" s="148"/>
       <c r="D6" s="149"/>
       <c r="E6" s="16"/>
       <c r="F6" s="147" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="148"/>
       <c r="H6" s="148"/>
@@ -24155,7 +24154,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
       <c r="F7" s="147" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G7" s="148"/>
       <c r="H7" s="148"/>
@@ -24184,7 +24183,7 @@
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A9" s="147" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
@@ -24273,13 +24272,13 @@
     </row>
     <row r="13" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A13" s="41" t="s">
+        <v>880</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>881</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>882</v>
-      </c>
       <c r="C13" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="6"/>
@@ -24302,13 +24301,13 @@
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A14" s="41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="6"/>
@@ -24330,13 +24329,13 @@
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A15" s="41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="6"/>
@@ -24356,13 +24355,13 @@
     </row>
     <row r="16" spans="1:13" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="6"/>
@@ -24482,7 +24481,7 @@
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
       <c r="F22" s="131" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G22" s="129">
         <f>'Project Grade'!$G$3</f>
@@ -24664,7 +24663,7 @@
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
       <c r="A33" s="121" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B33" s="121"/>
       <c r="C33" s="121"/>
@@ -24754,11 +24753,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -24767,7 +24761,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -24787,7 +24781,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="168" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" s="169"/>
       <c r="C1" s="114"/>
@@ -24824,7 +24818,7 @@
       <c r="C3" s="115"/>
       <c r="D3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E3" s="184"/>
       <c r="F3" s="71"/>
@@ -24835,7 +24829,7 @@
       <c r="H3" s="184"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>2.8749999999999998E-2</v>
+        <v>2.7499999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24877,7 +24871,7 @@
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
-        <v>2.5000000000000022E-3</v>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="E6" s="167"/>
       <c r="F6" s="11"/>
@@ -24888,7 +24882,7 @@
       <c r="H6" s="167"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>2.5000000000000022E-3</v>
+        <v>5.000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -25026,11 +25020,11 @@
       <c r="C12" s="96"/>
       <c r="D12" s="99">
         <f>TCRs!$E$7</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="107">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F12" s="103"/>
       <c r="G12" s="99">
@@ -25112,7 +25106,7 @@
       </c>
       <c r="E15" s="101">
         <f>SUM(E9:E14)</f>
-        <v>2.5000000000000022E-3</v>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="73" t="s">
@@ -26273,11 +26267,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -26322,7 +26311,7 @@
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A3" s="193" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B3" s="194"/>
       <c r="C3" s="194"/>
@@ -26342,7 +26331,7 @@
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A5" s="196" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B5" s="197"/>
       <c r="C5" s="197"/>
@@ -26899,11 +26888,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -26911,8 +26895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A31" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -27050,7 +27034,7 @@
       <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Partial"))</f>
@@ -27072,7 +27056,7 @@
       <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(F$10:F$249="Partial"))</f>
@@ -27448,7 +27432,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="65.5" thickBot="1">
+    <row r="27" spans="1:7" ht="78.5" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -27573,7 +27557,7 @@
         <v>788</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>64</v>
@@ -27942,7 +27926,7 @@
         <v>127</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>71</v>
@@ -27982,7 +27966,7 @@
         <v>125</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>68</v>
@@ -28501,7 +28485,7 @@
         <v>818</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>68</v>
@@ -28619,7 +28603,7 @@
         <v>820</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>68</v>
@@ -28640,7 +28624,7 @@
         <v>822</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>68</v>
@@ -28747,7 +28731,7 @@
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="1:7" ht="130.5" thickBot="1">
+    <row r="94" spans="1:7" ht="143.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -28758,7 +28742,7 @@
         <v>655</v>
       </c>
       <c r="D94" s="120" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>68</v>
@@ -28827,7 +28811,7 @@
     </row>
     <row r="98" spans="1:7" ht="14" customHeight="1" thickBot="1">
       <c r="A98" s="226" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B98" s="227"/>
       <c r="C98" s="8" t="s">
@@ -28854,10 +28838,10 @@
         <v>656</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D99" s="120" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>68</v>
@@ -28872,10 +28856,10 @@
         <v>81</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="8" t="s">
@@ -28894,7 +28878,7 @@
         <v>186</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="8" t="s">
@@ -28910,10 +28894,10 @@
         <v>118</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="8" t="s">
@@ -29139,7 +29123,7 @@
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="1:7" ht="16" thickBot="1">
+    <row r="114" spans="1:7" ht="117.5" thickBot="1">
       <c r="A114" s="64" t="s">
         <v>81</v>
       </c>
@@ -29147,11 +29131,13 @@
         <v>829</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="D114" s="55"/>
+        <v>902</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>903</v>
+      </c>
       <c r="E114" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>62</v>
@@ -29163,13 +29149,13 @@
         <v>118</v>
       </c>
       <c r="B115" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="C115" s="55" t="s">
         <v>831</v>
       </c>
-      <c r="C115" s="55" t="s">
-        <v>832</v>
-      </c>
       <c r="D115" s="120" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>66</v>
@@ -29184,10 +29170,10 @@
         <v>736</v>
       </c>
       <c r="B116" s="55" t="s">
+        <v>832</v>
+      </c>
+      <c r="C116" s="55" t="s">
         <v>833</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>834</v>
       </c>
       <c r="D116" s="55"/>
       <c r="E116" s="8" t="s">
@@ -31083,11 +31069,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -31095,8 +31076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -32135,10 +32116,10 @@
         <v>76</v>
       </c>
       <c r="B53" s="55" t="s">
+        <v>855</v>
+      </c>
+      <c r="C53" s="55" t="s">
         <v>856</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>857</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="8" t="s">
@@ -32157,7 +32138,7 @@
         <v>269</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="8" t="s">
@@ -32173,10 +32154,10 @@
         <v>76</v>
       </c>
       <c r="B55" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="C55" s="55" t="s">
         <v>854</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>855</v>
       </c>
       <c r="D55" s="55"/>
       <c r="E55" s="8" t="s">
@@ -33583,11 +33564,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -34156,10 +34132,10 @@
         <v>81</v>
       </c>
       <c r="B28" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="C28" s="55" t="s">
         <v>839</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>840</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="8" t="s">
@@ -34931,11 +34907,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -35217,10 +35188,10 @@
         <v>93</v>
       </c>
       <c r="B13" s="55" t="s">
+        <v>836</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>837</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>838</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="8" t="s">
@@ -36821,11 +36792,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -36879,7 +36845,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="232" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D2" s="233"/>
       <c r="E2" s="61">
@@ -37408,7 +37374,7 @@
     </row>
     <row r="29" spans="1:7" ht="14" customHeight="1" thickBot="1">
       <c r="A29" s="226" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B29" s="227"/>
       <c r="C29" s="8" t="s">
@@ -37432,10 +37398,10 @@
         <v>76</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>860</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>861</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="8" t="s">
@@ -37451,7 +37417,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>481</v>
@@ -37470,10 +37436,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>863</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>864</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="8" t="s">
@@ -37489,10 +37455,10 @@
         <v>93</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="8" t="s">
@@ -37508,10 +37474,10 @@
         <v>81</v>
       </c>
       <c r="B34" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>867</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>868</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="8" t="s">
@@ -37530,7 +37496,7 @@
         <v>482</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="8" t="s">
@@ -37546,10 +37512,10 @@
         <v>118</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>869</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>870</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>871</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="8" t="s">
@@ -37565,10 +37531,10 @@
         <v>118</v>
       </c>
       <c r="B37" s="55" t="s">
+        <v>871</v>
+      </c>
+      <c r="C37" s="55" t="s">
         <v>872</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>873</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="8" t="s">
@@ -37587,7 +37553,7 @@
         <v>483</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="8" t="s">
@@ -37603,10 +37569,10 @@
         <v>736</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="8" t="s">
@@ -37622,10 +37588,10 @@
         <v>736</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="8" t="s">
@@ -38555,11 +38521,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -38917,10 +38878,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="55" t="s">
+        <v>842</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>843</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>844</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="8" t="s">
@@ -38974,10 +38935,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="55" t="s">
+        <v>840</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>841</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>842</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="8" t="s">
@@ -40108,10 +40069,5 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="ACRs" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="905">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3475,6 +3474,9 @@
   </si>
   <si>
     <t>DIT2426US (machine in our team space), DX11 clean machine when booted into Windows 8.1 (Windows 7 on that machine does not have Service Pack 1, a requirement of our game. Game exits with simple message telling the user to install Service Pack 1 or better)</t>
+  </si>
+  <si>
+    <t>DIT2426US in our team space</t>
   </si>
 </sst>
 </file>
@@ -5200,19 +5202,31 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5224,22 +5238,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5269,76 +5304,82 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5359,45 +5400,6 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5407,6 +5409,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5414,42 +5443,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5488,32 +5481,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24040,54 +24042,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="149" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="149" t="s">
         <v>895</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24108,41 +24110,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="143" t="s">
         <v>896</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="143" t="s">
         <v>898</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="140" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24153,49 +24155,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="143" t="s">
         <v>899</v>
       </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="143" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="146"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24214,18 +24216,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24265,7 +24267,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="140" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24296,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="145"/>
+      <c r="L13" s="141"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24324,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="146"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24380,11 +24382,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24402,17 +24404,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="140" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24426,17 +24428,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="146"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24480,23 +24482,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="162" t="s">
         <v>845</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="160">
         <f>'Project Grade'!$G$3</f>
         <v>0.8</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="156"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="133">
+      <c r="J22" s="164">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="121" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24507,15 +24509,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="122"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="134"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="151"/>
+      <c r="L23" s="122"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24539,13 +24541,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="134" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24556,11 +24558,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24586,13 +24588,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24603,13 +24605,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="156" t="s">
+      <c r="F29" s="127" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24620,28 +24622,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24662,39 +24664,46 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="155" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24708,19 +24717,12 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24780,53 +24782,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="181" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="182"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="171" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="171" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="182"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="182"/>
+      <c r="H2" s="174"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="183">
+      <c r="D3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
         <v>0.78</v>
       </c>
-      <c r="E3" s="184"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="183">
+      <c r="G3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.8</v>
       </c>
-      <c r="H3" s="184"/>
+      <c r="H3" s="176"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
         <v>2.7499999999999997E-2</v>
@@ -24844,30 +24846,30 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="183" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="148"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="172">
+      <c r="A6" s="185">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
@@ -24889,15 +24891,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="175"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="175"/>
+      <c r="H7" s="177"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24921,7 +24923,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="178" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24951,7 +24953,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="177"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24979,7 +24981,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="178"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25065,7 +25067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="168" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25095,7 +25097,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="185"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25116,22 +25118,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="185"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="174"/>
+      <c r="E16" s="170"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="174" t="s">
+      <c r="G16" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="J16" s="185"/>
+      <c r="H16" s="170"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25154,7 +25156,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="185"/>
+      <c r="J17" s="168"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25182,7 +25184,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="186"/>
+      <c r="J18" s="169"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25358,15 +25360,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="170"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="174" t="s">
+      <c r="G25" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="174"/>
+      <c r="H25" s="170"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25585,15 +25587,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="174"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="174"/>
+      <c r="H34" s="170"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25803,15 +25805,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="174"/>
+      <c r="E43" s="170"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="174" t="s">
+      <c r="G43" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="174"/>
+      <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26021,15 +26023,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="174"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="174"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26237,6 +26239,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J13:J18"/>
@@ -26245,25 +26266,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26290,14 +26292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26310,14 +26312,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="214" t="s">
         <v>879</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26330,14 +26332,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="217" t="s">
         <v>878</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="219"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26366,10 +26368,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26385,10 +26387,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="201"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26404,10 +26406,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="202"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26423,10 +26425,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26442,10 +26444,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="202"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26461,10 +26463,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="201"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26480,10 +26482,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26499,10 +26501,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26519,11 +26521,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26542,13 +26544,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="192"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26587,246 +26589,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="202" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="205" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="206"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="206"/>
-      <c r="B24" s="214" t="s">
+      <c r="A24" s="203"/>
+      <c r="B24" s="211" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="206"/>
-      <c r="B25" s="217" t="s">
+      <c r="A25" s="203"/>
+      <c r="B25" s="193" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="219"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="206"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
+      <c r="A26" s="203"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="217" t="s">
+      <c r="A27" s="203"/>
+      <c r="B27" s="193" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="206"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="206"/>
-      <c r="B29" s="217" t="s">
+      <c r="A29" s="203"/>
+      <c r="B29" s="193" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="219"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="206"/>
-      <c r="B30" s="217" t="s">
+      <c r="A30" s="203"/>
+      <c r="B30" s="193" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="219"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="206"/>
-      <c r="B31" s="217" t="s">
+      <c r="A31" s="203"/>
+      <c r="B31" s="193" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="206"/>
-      <c r="B32" s="217" t="s">
+      <c r="A32" s="203"/>
+      <c r="B32" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="219"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="195"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="206"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="203"/>
+      <c r="B33" s="193" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="195"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="206"/>
-      <c r="B34" s="217" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="193" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="219"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="206"/>
-      <c r="B35" s="217" t="s">
+      <c r="A35" s="203"/>
+      <c r="B35" s="193" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="219"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="220" t="s">
+      <c r="A36" s="204"/>
+      <c r="B36" s="196" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="198"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="223" t="s">
+      <c r="B37" s="190" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="190" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="225"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="192"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="190" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="225"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="192"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="190" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="225"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="192"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="223" t="s">
+      <c r="B41" s="190" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="192"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="190" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="225"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="192"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="223" t="s">
+      <c r="B43" s="190" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="225"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="223" t="s">
+      <c r="B44" s="190" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="192"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26842,17 +26844,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A22:A36"/>
@@ -26869,22 +26876,17 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26895,8 +26897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -27136,7 +27138,9 @@
       <c r="C11" s="55" t="s">
         <v>657</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="55" t="s">
+        <v>904</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>68</v>
       </c>
@@ -28731,7 +28735,7 @@
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="1:7" ht="143.5" thickBot="1">
+    <row r="94" spans="1:7" ht="130.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -29359,6 +29363,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29368,13 +29379,6 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -31076,7 +31080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -5202,31 +5202,19 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5238,43 +5226,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5304,37 +5271,70 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5343,13 +5343,37 @@
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5370,35 +5394,11 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5409,33 +5409,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5443,6 +5416,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5481,41 +5490,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24042,54 +24042,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="148"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="138" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="138" t="s">
         <v>895</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24110,41 +24110,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="147" t="s">
         <v>896</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="147" t="s">
         <v>898</v>
       </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="144" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24155,49 +24155,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="147" t="s">
         <v>899</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="141"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="141"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="147" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="142"/>
+      <c r="L9" s="146"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24216,18 +24216,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="140" t="s">
+      <c r="L12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="141"/>
+      <c r="L13" s="145"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="142"/>
+      <c r="L14" s="146"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24382,11 +24382,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24404,17 +24404,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="157" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="144" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24428,17 +24428,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="142"/>
+      <c r="L19" s="146"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24482,23 +24482,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="131" t="s">
         <v>845</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="129">
         <f>'Project Grade'!$G$3</f>
-        <v>0.8</v>
-      </c>
-      <c r="H22" s="156"/>
+        <v>0.79</v>
+      </c>
+      <c r="H22" s="122"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="164">
+      <c r="J22" s="133">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="121" t="s">
+      <c r="L22" s="150" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24509,15 +24509,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="156"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="165"/>
+      <c r="J23" s="134"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="122"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24541,13 +24541,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="134" t="s">
+      <c r="F25" s="160" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24558,11 +24558,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="139"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24588,13 +24588,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="133" t="s">
+      <c r="F28" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24605,13 +24605,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="156" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24622,28 +24622,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24664,46 +24664,39 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="121" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24717,12 +24710,19 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24782,56 +24782,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="168" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="172"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="179" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="172"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="174"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="174"/>
+      <c r="H2" s="182"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="175">
+      <c r="D3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
-        <v>0.78</v>
-      </c>
-      <c r="E3" s="176"/>
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="184"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="175">
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="176"/>
+        <v>0.79</v>
+      </c>
+      <c r="H3" s="184"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>2.7499999999999997E-2</v>
+        <v>1.4999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24846,34 +24846,34 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="170" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="148"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="148"/>
+      <c r="H5" s="137"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="185">
+      <c r="A6" s="172">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
-        <v>5.000000000000001E-3</v>
+        <v>-3.0000000000000002E-2</v>
       </c>
       <c r="E6" s="167"/>
       <c r="F6" s="11"/>
@@ -24884,22 +24884,22 @@
       <c r="H6" s="167"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>5.000000000000001E-3</v>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="177"/>
+      <c r="H7" s="175"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24923,7 +24923,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="176" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="179"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24981,7 +24981,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25067,7 +25067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="168" t="s">
+      <c r="J13" s="185" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25097,7 +25097,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="168"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25118,22 +25118,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="168"/>
+      <c r="J15" s="185"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="170"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="170"/>
-      <c r="J16" s="168"/>
+      <c r="H16" s="174"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25156,7 +25156,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="168"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25184,7 +25184,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="169"/>
+      <c r="J18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25360,15 +25360,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="170"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="170"/>
+      <c r="H25" s="174"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25439,11 +25439,11 @@
       <c r="C28" s="95"/>
       <c r="D28" s="99">
         <f>ICRs!$E$3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="99">
@@ -25493,11 +25493,11 @@
       <c r="C30" s="96"/>
       <c r="D30" s="99">
         <f>ICRs!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="99">
@@ -25572,7 +25572,7 @@
       </c>
       <c r="E33" s="101">
         <f>SUM(E27:E32)</f>
-        <v>0</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F33" s="103"/>
       <c r="G33" s="73" t="s">
@@ -25587,15 +25587,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="170"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="170"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25805,15 +25805,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="170" t="s">
+      <c r="D43" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="170"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="170"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26023,15 +26023,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="170" t="s">
+      <c r="D52" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="170"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="170" t="s">
+      <c r="G52" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="170"/>
+      <c r="H52" s="174"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26239,11 +26239,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
@@ -26252,20 +26261,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26292,14 +26292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26312,14 +26312,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="193" t="s">
         <v>879</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26332,14 +26332,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="196" t="s">
         <v>878</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="219"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26368,10 +26368,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="215"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26387,10 +26387,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26406,10 +26406,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="223"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26425,10 +26425,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26444,10 +26444,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="223"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26463,10 +26463,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26482,10 +26482,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="222"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26501,10 +26501,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="225"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26521,11 +26521,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26544,13 +26544,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26589,246 +26589,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="205" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="208" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="203"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="213"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="203"/>
-      <c r="B24" s="211" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="214" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="213"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="203"/>
-      <c r="B25" s="193" t="s">
+      <c r="A25" s="206"/>
+      <c r="B25" s="217" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="219"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="203"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="203"/>
-      <c r="B27" s="193" t="s">
+      <c r="A27" s="206"/>
+      <c r="B27" s="217" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="203"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="203"/>
-      <c r="B29" s="193" t="s">
+      <c r="A29" s="206"/>
+      <c r="B29" s="217" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="219"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="203"/>
-      <c r="B30" s="193" t="s">
+      <c r="A30" s="206"/>
+      <c r="B30" s="217" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="219"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="203"/>
-      <c r="B31" s="193" t="s">
+      <c r="A31" s="206"/>
+      <c r="B31" s="217" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="219"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="203"/>
-      <c r="B32" s="193" t="s">
+      <c r="A32" s="206"/>
+      <c r="B32" s="217" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="203"/>
-      <c r="B33" s="193" t="s">
+      <c r="A33" s="206"/>
+      <c r="B33" s="217" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="203"/>
-      <c r="B34" s="193" t="s">
+      <c r="A34" s="206"/>
+      <c r="B34" s="217" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="203"/>
-      <c r="B35" s="193" t="s">
+      <c r="A35" s="206"/>
+      <c r="B35" s="217" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="204"/>
-      <c r="B36" s="196" t="s">
+      <c r="A36" s="207"/>
+      <c r="B36" s="220" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="198"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="223" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="225"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="223" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="192"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="223" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="192"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="223" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="192"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="225"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="223" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="192"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="190" t="s">
+      <c r="B42" s="223" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="192"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="225"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="223" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="223" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="192"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26844,6 +26844,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -26860,33 +26887,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26897,8 +26897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A26" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -27320,7 +27320,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="65.5" thickBot="1">
+    <row r="21" spans="1:7" ht="78.5" thickBot="1">
       <c r="A21" s="65" t="s">
         <v>93</v>
       </c>
@@ -28735,7 +28735,7 @@
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="1:7" ht="130.5" thickBot="1">
+    <row r="94" spans="1:7" ht="143.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -29363,13 +29363,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29379,6 +29372,13 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -31080,8 +31080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -31108,7 +31108,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$234,$A$2)&amp;" "&amp;$A$2</f>
-        <v>74 Untested</v>
+        <v>63 Untested</v>
       </c>
       <c r="F1" s="7" t="str">
         <f>""&amp;COUNTIF(F$10:F$234,$A$2)&amp;" "&amp;$A$2</f>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>62</v>
@@ -31342,7 +31342,7 @@
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>62</v>
@@ -31477,7 +31477,7 @@
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>62</v>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>62</v>
@@ -31650,7 +31650,7 @@
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>62</v>
@@ -31669,7 +31669,7 @@
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>62</v>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>62</v>
@@ -32146,7 +32146,7 @@
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>62</v>
@@ -32165,7 +32165,7 @@
       </c>
       <c r="D55" s="55"/>
       <c r="E55" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>62</v>
@@ -32509,7 +32509,7 @@
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>62</v>
@@ -32528,7 +32528,7 @@
       </c>
       <c r="D74" s="55"/>
       <c r="E74" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>62</v>
@@ -33575,8 +33575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -33603,7 +33603,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$176,$A$2)&amp;" "&amp;$A$2</f>
-        <v>38 Untested</v>
+        <v>19 Untested</v>
       </c>
       <c r="F1" s="7" t="str">
         <f>""&amp;COUNTIF(F$10:F$176,$A$2)&amp;" "&amp;$A$2</f>
@@ -33648,7 +33648,7 @@
       <c r="D3" s="235"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Basic")*(F$10:F$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Basic")*(F$10:F$176="Partial"))</f>
@@ -33692,7 +33692,7 @@
       <c r="D5" s="235"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(F$10:F$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Intermediate")*(F$10:F$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(F$10:F$176="Partial"))</f>
@@ -33714,7 +33714,7 @@
       <c r="D6" s="235"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(F$10:F$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(F$10:F$176="Partial"))</f>
@@ -33736,7 +33736,7 @@
       <c r="D7" s="235"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(F$10:F$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Advanced")*(F$10:F$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(F$10:F$176="Partial"))</f>
@@ -33818,7 +33818,7 @@
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>62</v>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>62</v>
@@ -33856,7 +33856,7 @@
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>62</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>62</v>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>62</v>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>62</v>
@@ -34067,7 +34067,7 @@
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>62</v>
@@ -34086,7 +34086,7 @@
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>62</v>
@@ -34105,7 +34105,7 @@
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>62</v>
@@ -34124,7 +34124,7 @@
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>62</v>
@@ -34143,7 +34143,7 @@
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>62</v>
@@ -34162,7 +34162,7 @@
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>62</v>
@@ -34181,7 +34181,7 @@
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>62</v>
@@ -34200,7 +34200,7 @@
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>62</v>
@@ -34240,7 +34240,7 @@
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>62</v>
@@ -34259,7 +34259,7 @@
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>62</v>
@@ -34278,7 +34278,7 @@
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>62</v>
@@ -34297,7 +34297,7 @@
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>62</v>
@@ -34316,7 +34316,7 @@
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>62</v>
@@ -34901,7 +34901,7 @@
       <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E11:F21 E23:F31 E33:F42 E44:F52">
       <formula1>"Untested, Missing, Partial, Completed, Waived, Not Applicable"</formula1>
     </dataValidation>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -5202,19 +5202,31 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5226,22 +5238,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5271,76 +5304,82 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5361,45 +5400,6 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5409,6 +5409,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5416,42 +5443,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5490,32 +5481,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24042,54 +24042,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="149" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="149" t="s">
         <v>895</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24110,41 +24110,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="143" t="s">
         <v>896</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="143" t="s">
         <v>898</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="140" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24155,49 +24155,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="143" t="s">
         <v>899</v>
       </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="143" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="146"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24216,18 +24216,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="140" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="145"/>
+      <c r="L13" s="141"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="146"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24382,11 +24382,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24404,17 +24404,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="140" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24428,17 +24428,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="146"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24482,23 +24482,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="162" t="s">
         <v>845</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="160">
         <f>'Project Grade'!$G$3</f>
         <v>0.79</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="156"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="133">
+      <c r="J22" s="164">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="121" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24509,15 +24509,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="122"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="134"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="151"/>
+      <c r="L23" s="122"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24541,13 +24541,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="134" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24558,11 +24558,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24588,13 +24588,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24605,13 +24605,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="156" t="s">
+      <c r="F29" s="127" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24622,28 +24622,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24664,39 +24664,46 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="155" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24710,19 +24717,12 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24782,53 +24782,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="181" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="182"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="171" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="171" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="182"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="182"/>
+      <c r="H2" s="174"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="183">
+      <c r="D3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
         <v>0.74</v>
       </c>
-      <c r="E3" s="184"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="183">
+      <c r="G3" s="175">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.79</v>
       </c>
-      <c r="H3" s="184"/>
+      <c r="H3" s="176"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
         <v>1.4999999999999998E-2</v>
@@ -24846,30 +24846,30 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="183" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="146" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="148"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="172">
+      <c r="A6" s="185">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
@@ -24891,15 +24891,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="175"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="175"/>
+      <c r="H7" s="177"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24923,7 +24923,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="178" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="177"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24981,7 +24981,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="178"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25067,7 +25067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="168" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25097,7 +25097,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="185"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25118,22 +25118,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="185"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="174"/>
+      <c r="E16" s="170"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="174" t="s">
+      <c r="G16" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="J16" s="185"/>
+      <c r="H16" s="170"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25156,7 +25156,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="185"/>
+      <c r="J17" s="168"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25184,7 +25184,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="186"/>
+      <c r="J18" s="169"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25360,15 +25360,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="170"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="174" t="s">
+      <c r="G25" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="174"/>
+      <c r="H25" s="170"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25587,15 +25587,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="174"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="174"/>
+      <c r="H34" s="170"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25805,15 +25805,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="174"/>
+      <c r="E43" s="170"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="174" t="s">
+      <c r="G43" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="174"/>
+      <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26023,15 +26023,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="174"/>
+      <c r="E52" s="170"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="174"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26239,6 +26239,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J13:J18"/>
@@ -26247,25 +26266,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26276,7 +26276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
@@ -26292,14 +26292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26312,14 +26312,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="214" t="s">
         <v>879</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26332,14 +26332,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="217" t="s">
         <v>878</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="219"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26368,10 +26368,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26387,10 +26387,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="201"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26406,10 +26406,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="202"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26425,10 +26425,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26444,10 +26444,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="202"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26463,10 +26463,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="201"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26482,10 +26482,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26501,10 +26501,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26521,11 +26521,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26544,13 +26544,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="192"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26589,246 +26589,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="202" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="205" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="206"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="206"/>
-      <c r="B24" s="214" t="s">
+      <c r="A24" s="203"/>
+      <c r="B24" s="211" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="206"/>
-      <c r="B25" s="217" t="s">
+      <c r="A25" s="203"/>
+      <c r="B25" s="193" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="219"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="206"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
+      <c r="A26" s="203"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="217" t="s">
+      <c r="A27" s="203"/>
+      <c r="B27" s="193" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="206"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="206"/>
-      <c r="B29" s="217" t="s">
+      <c r="A29" s="203"/>
+      <c r="B29" s="193" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="219"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="206"/>
-      <c r="B30" s="217" t="s">
+      <c r="A30" s="203"/>
+      <c r="B30" s="193" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="219"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="206"/>
-      <c r="B31" s="217" t="s">
+      <c r="A31" s="203"/>
+      <c r="B31" s="193" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="206"/>
-      <c r="B32" s="217" t="s">
+      <c r="A32" s="203"/>
+      <c r="B32" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="219"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="195"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="206"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="203"/>
+      <c r="B33" s="193" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="195"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="206"/>
-      <c r="B34" s="217" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="193" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="219"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="206"/>
-      <c r="B35" s="217" t="s">
+      <c r="A35" s="203"/>
+      <c r="B35" s="193" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="219"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="220" t="s">
+      <c r="A36" s="204"/>
+      <c r="B36" s="196" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="198"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="223" t="s">
+      <c r="B37" s="190" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="190" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="225"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="192"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="190" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="225"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="192"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="190" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="225"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="192"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="223" t="s">
+      <c r="B41" s="190" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="192"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="190" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="225"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="192"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="223" t="s">
+      <c r="B43" s="190" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="225"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="223" t="s">
+      <c r="B44" s="190" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="192"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26844,17 +26844,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A22:A36"/>
@@ -26871,22 +26876,17 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26897,7 +26897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="95" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -29363,6 +29363,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29372,13 +29379,6 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -33575,7 +33575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/Rubric/GAM_Project_Rubric_Final.xlsx
+++ b/Rubric/GAM_Project_Rubric_Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -5202,31 +5202,19 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5238,43 +5226,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5304,37 +5271,70 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5343,13 +5343,37 @@
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5370,35 +5394,11 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5409,33 +5409,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5443,6 +5416,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5481,41 +5490,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24042,54 +24042,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="148"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="138" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="138" t="s">
         <v>895</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -24110,41 +24110,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="147" t="s">
         <v>896</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="147" t="s">
         <v>898</v>
       </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="144" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -24155,49 +24155,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="147" t="s">
         <v>899</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="141"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="141"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="147" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="142"/>
+      <c r="L9" s="146"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24216,18 +24216,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="140" t="s">
+      <c r="L12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="141"/>
+      <c r="L13" s="145"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="142"/>
+      <c r="L14" s="146"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24382,11 +24382,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -24404,17 +24404,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="157" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="144" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -24428,17 +24428,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="142"/>
+      <c r="L19" s="146"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24482,23 +24482,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="131" t="s">
         <v>845</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="129">
         <f>'Project Grade'!$G$3</f>
         <v>0.79</v>
       </c>
-      <c r="H22" s="156"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="164">
+      <c r="J22" s="133">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="121" t="s">
+      <c r="L22" s="150" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -24509,15 +24509,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="156"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="165"/>
+      <c r="J23" s="134"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="122"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -24541,13 +24541,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="134" t="s">
+      <c r="F25" s="160" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -24558,11 +24558,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="139"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -24588,13 +24588,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="133" t="s">
+      <c r="F28" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -24605,13 +24605,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="156" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -24622,28 +24622,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -24664,46 +24664,39 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="121" t="s">
         <v>857</v>
       </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -24717,12 +24710,19 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -24782,53 +24782,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="168" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="172"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="179" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="172"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="174"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="181" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="174"/>
+      <c r="H2" s="182"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="175">
+      <c r="D3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
         <v>0.74</v>
       </c>
-      <c r="E3" s="176"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="175">
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.79</v>
       </c>
-      <c r="H3" s="176"/>
+      <c r="H3" s="184"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
         <v>1.4999999999999998E-2</v>
@@ -24846,30 +24846,30 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="170" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="148"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="135" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="148"/>
+      <c r="H5" s="137"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="185">
+      <c r="A6" s="172">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="103"/>
       <c r="D6" s="166">
         <f>E15+E24+E33+E42+E51+E60</f>
@@ -24891,15 +24891,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="177"/>
+      <c r="H7" s="175"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -24923,7 +24923,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="176" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="179"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -24981,7 +24981,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -25067,7 +25067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="168" t="s">
+      <c r="J13" s="185" t="s">
         <v>731</v>
       </c>
     </row>
@@ -25097,7 +25097,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="168"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -25118,22 +25118,22 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="168"/>
+      <c r="J15" s="185"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="170"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="170"/>
-      <c r="J16" s="168"/>
+      <c r="H16" s="174"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -25156,7 +25156,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="168"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -25184,7 +25184,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="169"/>
+      <c r="J18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -25360,15 +25360,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="170"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="170"/>
+      <c r="H25" s="174"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -25587,15 +25587,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="170"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="170"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -25805,15 +25805,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="170" t="s">
+      <c r="D43" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="170"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="170"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -26023,15 +26023,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="170" t="s">
+      <c r="D52" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="170"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="170" t="s">
+      <c r="G52" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="170"/>
+      <c r="H52" s="174"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -26239,11 +26239,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
@@ -26252,20 +26261,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26276,7 +26276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
@@ -26292,14 +26292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="187" t="s">
@@ -26312,14 +26312,14 @@
       <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" thickBot="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="193" t="s">
         <v>879</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="187" t="s">
@@ -26332,14 +26332,14 @@
       <c r="F4" s="189"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="196" t="s">
         <v>878</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="219"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -26368,10 +26368,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="215"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -26387,10 +26387,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -26406,10 +26406,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="223"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -26425,10 +26425,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -26444,10 +26444,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="223"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -26463,10 +26463,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -26482,10 +26482,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="222"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -26501,10 +26501,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="225"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26521,11 +26521,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26544,13 +26544,13 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -26589,246 +26589,246 @@
       <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="205" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="208" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
     </row>
     <row r="23" spans="1:6" ht="15.5">
-      <c r="A23" s="203"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="213"/>
     </row>
     <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="203"/>
-      <c r="B24" s="211" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="214" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="213"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
     </row>
     <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="203"/>
-      <c r="B25" s="193" t="s">
+      <c r="A25" s="206"/>
+      <c r="B25" s="217" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="219"/>
     </row>
     <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="203"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1">
-      <c r="A27" s="203"/>
-      <c r="B27" s="193" t="s">
+      <c r="A27" s="206"/>
+      <c r="B27" s="217" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
     </row>
     <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="203"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
     </row>
     <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="203"/>
-      <c r="B29" s="193" t="s">
+      <c r="A29" s="206"/>
+      <c r="B29" s="217" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="219"/>
     </row>
     <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="203"/>
-      <c r="B30" s="193" t="s">
+      <c r="A30" s="206"/>
+      <c r="B30" s="217" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="219"/>
     </row>
     <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="203"/>
-      <c r="B31" s="193" t="s">
+      <c r="A31" s="206"/>
+      <c r="B31" s="217" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="219"/>
     </row>
     <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="203"/>
-      <c r="B32" s="193" t="s">
+      <c r="A32" s="206"/>
+      <c r="B32" s="217" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
     </row>
     <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="203"/>
-      <c r="B33" s="193" t="s">
+      <c r="A33" s="206"/>
+      <c r="B33" s="217" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
     </row>
     <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="203"/>
-      <c r="B34" s="193" t="s">
+      <c r="A34" s="206"/>
+      <c r="B34" s="217" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
     </row>
     <row r="35" spans="1:6" ht="15.5">
-      <c r="A35" s="203"/>
-      <c r="B35" s="193" t="s">
+      <c r="A35" s="206"/>
+      <c r="B35" s="217" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1">
-      <c r="A36" s="204"/>
-      <c r="B36" s="196" t="s">
+      <c r="A36" s="207"/>
+      <c r="B36" s="220" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="198"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
     </row>
     <row r="37" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="223" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="225"/>
     </row>
     <row r="38" spans="1:6" ht="58" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="223" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="192"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="223" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="192"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
     </row>
     <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="223" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="192"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="225"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="223" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="192"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="190" t="s">
+      <c r="B42" s="223" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="192"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="225"/>
     </row>
     <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="223" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="223" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="192"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
@@ -26844,6 +26844,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -26860,33 +26887,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26897,8 +26897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -29363,13 +29363,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -29379,6 +29372,13 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1344" priority="941" stopIfTrue="1" operator="beginsWith" text="Exceptional">
